--- a/2018-2020国内安全圈活跃技术博主.xlsx
+++ b/2018-2020国内安全圈活跃技术博主.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7358" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7533" uniqueCount="2306">
   <si>
     <t>http://l-team.org</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6990,10 +6990,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.safe6.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Safe6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7005,10 +7001,6 @@
     <t>qq1850597152</t>
   </si>
   <si>
-    <t>https://www.zhaoj.in/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://twitter.com/glzjin</t>
   </si>
   <si>
@@ -7124,10 +7116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://blog.lnyas.xyz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>au1ge|Lnyassss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7160,10 +7148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.waitalone.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://weibo.com/hack2012</t>
   </si>
   <si>
@@ -7222,10 +7206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://gxgoodboy.lofter.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漏洞分析-漏洞挖掘-代码审计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7237,10 +7217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.secice.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iceH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7259,9 +7235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.chabug.org/</t>
-  </si>
-  <si>
     <t>Learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7290,10 +7263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://rmb122.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rmb122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7302,10 +7271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://hexo.imagemlt.xyz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Imagemlt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7326,10 +7291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://susers.github.io/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SUS|东南大学网络安全联盟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7409,10 +7370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.she1don.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sheldon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7421,10 +7378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://yugod.xmutsec.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>saltyfishyu|folishyu|yuf1sher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7441,10 +7394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://carlstar.club/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CarlStar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7452,10 +7401,6 @@
     <t>https://github.com/Who1sCarl</t>
   </si>
   <si>
-    <t>https://www.addon.pub/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yokeen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7464,10 +7409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://lalajun.github.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web安全-Java安全-区块链安全-智能合约安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7480,10 +7421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://p0rz9.github.io/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代码审计-Java安全-Java代码审计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7663,9 +7600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://geeeez.github.io/</t>
-  </si>
-  <si>
     <t>Geez</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7803,9 +7737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://only-free.github.io/</t>
-  </si>
-  <si>
     <t>only_free</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7944,9 +7875,6 @@
   </si>
   <si>
     <t>ru6y1igh7@foxmail.com</t>
-  </si>
-  <si>
-    <t>https://wulidecade.cn/</t>
   </si>
   <si>
     <t>Decade</t>
@@ -9011,12 +8939,299 @@
     <t>https://love-sg.me</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>252-312-317-395</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.safe6.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhaoj.in/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-260-398</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.lnyas.xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.waitalone.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105-144-374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gxgoodboy.lofter.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.secice.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chabug.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rmb122.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>182-273-272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hexo.imagemlt.xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.zeddyu.info/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zedd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ZeddYu</t>
+  </si>
+  <si>
+    <t>zeddyu.lu@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.zeddyu.info/atom.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-163-273-360-272-410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://susers.github.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.she1don.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>276-315-329-362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yugod.xmutsec.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>276-315-329-361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://carlstar.club/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.addon.pub/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>274-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lalajun.github.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://p0rz9.github.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.orleven.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orleven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-276-411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.eonew.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Ex-Origin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-245-280-323-399-284-412-351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://geeeez.github.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280-370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224-281-190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106-281-190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://1oid.github.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/1oid</t>
+  </si>
+  <si>
+    <t>Web安全-代码审计-安全开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2563152103@qq.com</t>
+  </si>
+  <si>
+    <t>285-413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://52stu.me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈铭|K6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285-337-414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://only-free.github.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wyaq.top/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285-3-415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204-285-224-221-408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287-381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wulidecade.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/u/121bf0f6b3d2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿烨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.szfszf.top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JrXnm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apeng.fun/</t>
+  </si>
+  <si>
+    <t>Apeng|阿鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Apeng7364</t>
+  </si>
+  <si>
+    <t>De1ta</t>
+  </si>
+  <si>
+    <t>apeng622@gmail.com</t>
+  </si>
+  <si>
+    <t>https://lihuaiqiu.github.io/</t>
+  </si>
+  <si>
+    <t>离怀秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312-416-417-287-418-247-410-419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nu1L-Dawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9185,6 +9400,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6B6B6B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -9217,7 +9444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9330,6 +9557,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9613,10 +9846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T410"/>
+  <dimension ref="A1:T420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="E350" sqref="E350"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="K245" sqref="K245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9643,64 +9876,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>1888</v>
+        <v>1872</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1887</v>
+        <v>1871</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1106</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1107</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>1105</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>1766</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>1873</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>1767</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>1768</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>1889</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>1770</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>1773</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -14739,7 +14972,7 @@
         <v>350</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="F83" s="7">
         <v>1</v>
@@ -14748,7 +14981,7 @@
         <v>819</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>1108</v>
@@ -14772,7 +15005,7 @@
         <v>352</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="Q83" s="7" t="s">
         <v>1108</v>
@@ -17547,10 +17780,10 @@
         <v>563</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>1405</v>
+        <v>2304</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>1108</v>
+        <v>2305</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>1108</v>
@@ -17981,10 +18214,10 @@
         <v>267</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>1405</v>
+        <v>2304</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>1108</v>
+        <v>2305</v>
       </c>
       <c r="M135" s="7" t="s">
         <v>1108</v>
@@ -22383,7 +22616,7 @@
         <v>939</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>2056</v>
+        <v>2037</v>
       </c>
       <c r="L206" s="7" t="s">
         <v>1108</v>
@@ -23809,7 +24042,7 @@
         <v>1045</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>1900</v>
+        <v>1884</v>
       </c>
       <c r="L229" s="7" t="s">
         <v>1050</v>
@@ -24402,7 +24635,7 @@
         <v>1751</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C239" s="7">
         <v>238</v>
@@ -25347,7 +25580,7 @@
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="H254" t="s">
         <v>1188</v>
@@ -25403,7 +25636,7 @@
         <v>1197</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="F255" s="7">
         <v>1</v>
@@ -25595,7 +25828,7 @@
         <v>1</v>
       </c>
       <c r="G258" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>1224</v>
@@ -25719,7 +25952,7 @@
         <v>1</v>
       </c>
       <c r="G260" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H260" t="s">
         <v>1312</v>
@@ -25781,7 +26014,7 @@
         <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>1238</v>
@@ -25843,7 +26076,7 @@
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>1244</v>
@@ -25896,7 +26129,7 @@
         <v>262</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>1248</v>
@@ -25905,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="H263" t="s">
         <v>1312</v>
@@ -25961,7 +26194,7 @@
         <v>1255</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F264" s="7">
         <v>1</v>
@@ -26023,25 +26256,25 @@
         <v>1263</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F265" s="7">
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>1915</v>
+        <v>1899</v>
       </c>
       <c r="J265" s="7" t="s">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="K265" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="L265" t="s">
         <v>1265</v>
@@ -26085,13 +26318,13 @@
         <v>1272</v>
       </c>
       <c r="E266" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F266" s="7">
+        <v>1</v>
+      </c>
+      <c r="G266" t="s">
         <v>1792</v>
-      </c>
-      <c r="F266" s="7">
-        <v>1</v>
-      </c>
-      <c r="G266" t="s">
-        <v>1795</v>
       </c>
       <c r="H266" t="s">
         <v>1312</v>
@@ -26100,7 +26333,7 @@
         <v>1312</v>
       </c>
       <c r="J266" s="7" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="K266" t="s">
         <v>1312</v>
@@ -26127,7 +26360,7 @@
         <v>1274</v>
       </c>
       <c r="S266" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="T266" t="s">
         <v>1312</v>
@@ -26147,13 +26380,13 @@
         <v>1275</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="F267" s="7">
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="H267" t="s">
         <v>1312</v>
@@ -26206,16 +26439,16 @@
         <v>267</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="F268" s="7">
         <v>1</v>
       </c>
       <c r="G268" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>1280</v>
@@ -26271,13 +26504,13 @@
         <v>1281</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="F269" s="7">
         <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>1282</v>
@@ -26357,13 +26590,13 @@
         <v>1312</v>
       </c>
       <c r="M270" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="N270" t="s">
         <v>1312</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="P270" t="s">
         <v>1312</v>
@@ -26395,13 +26628,13 @@
         <v>1291</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="F271" s="7">
         <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>1294</v>
@@ -26457,13 +26690,13 @@
         <v>1297</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="F272" s="7">
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="H272" t="s">
         <v>1312</v>
@@ -26510,7 +26743,7 @@
         <v>1391</v>
       </c>
       <c r="B273" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="C273" s="7">
         <v>272</v>
@@ -26525,7 +26758,7 @@
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>1848</v>
+        <v>1838</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>1302</v>
@@ -26534,7 +26767,7 @@
         <v>1312</v>
       </c>
       <c r="J273" s="7" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="K273" t="s">
         <v>1312</v>
@@ -26587,7 +26820,7 @@
         <v>1</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>1849</v>
+        <v>1839</v>
       </c>
       <c r="H274" t="s">
         <v>1312</v>
@@ -26640,7 +26873,7 @@
         <v>274</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>2148</v>
+        <v>2129</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>1321</v>
@@ -26649,7 +26882,7 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="H275" t="s">
         <v>1391</v>
@@ -26658,7 +26891,7 @@
         <v>1391</v>
       </c>
       <c r="J275" s="7" t="s">
-        <v>1851</v>
+        <v>1841</v>
       </c>
       <c r="K275" t="s">
         <v>1391</v>
@@ -26696,7 +26929,7 @@
         <v>1751</v>
       </c>
       <c r="B276" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
       <c r="C276" s="7">
         <v>275</v>
@@ -26705,13 +26938,13 @@
         <v>1322</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
       <c r="F276" s="7">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="H276" t="s">
         <v>1391</v>
@@ -26720,10 +26953,10 @@
         <v>1391</v>
       </c>
       <c r="J276" s="7" t="s">
-        <v>1856</v>
+        <v>1846</v>
       </c>
       <c r="K276" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="L276" t="s">
         <v>1391</v>
@@ -26744,7 +26977,7 @@
         <v>1391</v>
       </c>
       <c r="R276" s="1" t="s">
-        <v>1859</v>
+        <v>1849</v>
       </c>
       <c r="S276" t="s">
         <v>1391</v>
@@ -26755,10 +26988,10 @@
     </row>
     <row r="277" spans="1:20">
       <c r="A277" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
       <c r="B277" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
       <c r="C277" s="7">
         <v>276</v>
@@ -26767,13 +27000,13 @@
         <v>1323</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1857</v>
+        <v>1847</v>
       </c>
       <c r="F277" s="7">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>1878</v>
+        <v>1863</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>1325</v>
@@ -26829,13 +27062,13 @@
         <v>1328</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
       <c r="F278" s="7">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>1898</v>
+        <v>1882</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>1329</v>
@@ -26844,10 +27077,10 @@
         <v>1330</v>
       </c>
       <c r="J278" s="7" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
       <c r="K278" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
       <c r="L278" t="s">
         <v>1391</v>
@@ -26874,7 +27107,7 @@
         <v>1391</v>
       </c>
       <c r="T278" t="s">
-        <v>1892</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -26888,10 +27121,10 @@
         <v>278</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>1852</v>
+        <v>1842</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1902</v>
+        <v>1886</v>
       </c>
       <c r="F279" s="7">
         <v>1</v>
@@ -26953,7 +27186,7 @@
         <v>1334</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1903</v>
+        <v>1887</v>
       </c>
       <c r="F280" s="7">
         <v>1</v>
@@ -27015,13 +27248,13 @@
         <v>1338</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1904</v>
+        <v>1888</v>
       </c>
       <c r="F281" s="7">
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="H281" t="s">
         <v>1391</v>
@@ -27077,13 +27310,13 @@
         <v>1347</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1930</v>
+        <v>1913</v>
       </c>
       <c r="F282" s="7">
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>1936</v>
+        <v>1919</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>1348</v>
@@ -27139,13 +27372,13 @@
         <v>1352</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1940</v>
+        <v>1923</v>
       </c>
       <c r="F283" s="7">
         <v>1</v>
       </c>
       <c r="G283" t="s">
-        <v>1941</v>
+        <v>1924</v>
       </c>
       <c r="H283" t="s">
         <v>1391</v>
@@ -27201,13 +27434,13 @@
         <v>1355</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1942</v>
+        <v>1925</v>
       </c>
       <c r="F284" s="7">
         <v>1</v>
       </c>
       <c r="G284" t="s">
-        <v>1943</v>
+        <v>1926</v>
       </c>
       <c r="H284" t="s">
         <v>1391</v>
@@ -27263,13 +27496,13 @@
         <v>1357</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1949</v>
+        <v>1932</v>
       </c>
       <c r="F285" s="7">
         <v>1</v>
       </c>
       <c r="G285" t="s">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="H285" t="s">
         <v>1391</v>
@@ -27281,7 +27514,7 @@
         <v>1358</v>
       </c>
       <c r="K285" t="s">
-        <v>1950</v>
+        <v>1933</v>
       </c>
       <c r="L285" t="s">
         <v>1391</v>
@@ -27325,13 +27558,13 @@
         <v>1359</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1952</v>
+        <v>1935</v>
       </c>
       <c r="F286" s="7">
         <v>1</v>
       </c>
       <c r="G286" t="s">
-        <v>1971</v>
+        <v>1953</v>
       </c>
       <c r="H286" t="s">
         <v>1391</v>
@@ -27387,13 +27620,13 @@
         <v>1361</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1972</v>
+        <v>1954</v>
       </c>
       <c r="F287" s="7">
         <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>1986</v>
+        <v>1968</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>1362</v>
@@ -27449,13 +27682,13 @@
         <v>1366</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1987</v>
+        <v>1969</v>
       </c>
       <c r="F288" s="7">
         <v>1</v>
       </c>
       <c r="G288" t="s">
-        <v>2004</v>
+        <v>1985</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>1365</v>
@@ -27511,13 +27744,13 @@
         <v>1376</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="F289" s="7">
         <v>2</v>
       </c>
       <c r="G289" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H289" t="s">
         <v>1391</v>
@@ -27573,7 +27806,7 @@
         <v>1381</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>2006</v>
+        <v>1987</v>
       </c>
       <c r="F290" s="7">
         <v>2</v>
@@ -27635,13 +27868,13 @@
         <v>1379</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="F291" s="7">
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H291" t="s">
         <v>1391</v>
@@ -27697,13 +27930,13 @@
         <v>1397</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="F292" s="7">
         <v>1</v>
       </c>
       <c r="G292" t="s">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="H292" t="s">
         <v>1519</v>
@@ -27759,16 +27992,16 @@
         <v>1403</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="F293" s="7">
         <v>2</v>
       </c>
       <c r="G293" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="I293" t="s">
         <v>1519</v>
@@ -27792,7 +28025,7 @@
         <v>1519</v>
       </c>
       <c r="P293" s="1" t="s">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="Q293" t="s">
         <v>1519</v>
@@ -27821,13 +28054,13 @@
         <v>1413</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="F294" s="7">
         <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>1414</v>
@@ -27883,13 +28116,13 @@
         <v>1421</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="F295" s="7">
         <v>1</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="H295" t="s">
         <v>1519</v>
@@ -27945,7 +28178,7 @@
         <v>1424</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>2024</v>
+        <v>2005</v>
       </c>
       <c r="F296" s="7">
         <v>1</v>
@@ -28007,13 +28240,13 @@
         <v>1427</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="F297" s="7">
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>2032</v>
+        <v>2013</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>1426</v>
@@ -28069,13 +28302,13 @@
         <v>1440</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>2034</v>
+        <v>2015</v>
       </c>
       <c r="F298" s="7">
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>2046</v>
+        <v>2027</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>1441</v>
@@ -28131,7 +28364,7 @@
         <v>1449</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="F299" s="7">
         <v>1</v>
@@ -28193,13 +28426,13 @@
         <v>1460</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>2048</v>
+        <v>2029</v>
       </c>
       <c r="F300" s="7">
         <v>1</v>
       </c>
       <c r="G300" s="35" t="s">
-        <v>2049</v>
+        <v>2030</v>
       </c>
       <c r="H300" t="s">
         <v>1519</v>
@@ -28255,13 +28488,13 @@
         <v>1462</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>2050</v>
+        <v>2031</v>
       </c>
       <c r="F301" s="7">
         <v>1</v>
       </c>
       <c r="G301" t="s">
-        <v>2072</v>
+        <v>2053</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>1461</v>
@@ -28317,7 +28550,7 @@
         <v>1464</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>2059</v>
+        <v>2040</v>
       </c>
       <c r="F302" s="7">
         <v>1</v>
@@ -28332,10 +28565,10 @@
         <v>1519</v>
       </c>
       <c r="J302" t="s">
-        <v>2057</v>
+        <v>2038</v>
       </c>
       <c r="K302" t="s">
-        <v>2056</v>
+        <v>2037</v>
       </c>
       <c r="L302" t="s">
         <v>1519</v>
@@ -28379,7 +28612,7 @@
         <v>1465</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="F303" s="7">
         <v>1</v>
@@ -28394,10 +28627,10 @@
         <v>1519</v>
       </c>
       <c r="J303" t="s">
-        <v>2058</v>
+        <v>2039</v>
       </c>
       <c r="K303" t="s">
-        <v>2055</v>
+        <v>2036</v>
       </c>
       <c r="L303" t="s">
         <v>1519</v>
@@ -28441,7 +28674,7 @@
         <v>1466</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>2074</v>
+        <v>2055</v>
       </c>
       <c r="F304" s="7">
         <v>1</v>
@@ -28459,7 +28692,7 @@
         <v>1398</v>
       </c>
       <c r="K304" t="s">
-        <v>2055</v>
+        <v>2036</v>
       </c>
       <c r="L304" t="s">
         <v>1519</v>
@@ -28503,13 +28736,13 @@
         <v>1469</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>2075</v>
+        <v>2056</v>
       </c>
       <c r="F305" s="7">
         <v>1</v>
       </c>
       <c r="G305" t="s">
-        <v>2085</v>
+        <v>2066</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>1470</v>
@@ -28562,10 +28795,10 @@
         <v>305</v>
       </c>
       <c r="D306" t="s">
-        <v>2087</v>
+        <v>2068</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>2086</v>
+        <v>2067</v>
       </c>
       <c r="F306" s="7">
         <v>1</v>
@@ -28624,16 +28857,16 @@
         <v>306</v>
       </c>
       <c r="D307" t="s">
-        <v>2088</v>
+        <v>2069</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>2089</v>
+        <v>2070</v>
       </c>
       <c r="F307" s="7">
         <v>1</v>
       </c>
       <c r="G307" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>1488</v>
@@ -28689,13 +28922,13 @@
         <v>1497</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>2091</v>
+        <v>2072</v>
       </c>
       <c r="F308" s="7">
         <v>1</v>
       </c>
       <c r="G308" t="s">
-        <v>2095</v>
+        <v>2076</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>1496</v>
@@ -28751,13 +28984,13 @@
         <v>1508</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>2096</v>
+        <v>2077</v>
       </c>
       <c r="F309" s="7">
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>1505</v>
@@ -28766,7 +28999,7 @@
         <v>1519</v>
       </c>
       <c r="J309" t="s">
-        <v>2097</v>
+        <v>2078</v>
       </c>
       <c r="K309" t="s">
         <v>1519</v>
@@ -28813,13 +29046,13 @@
         <v>1510</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>2098</v>
+        <v>2079</v>
       </c>
       <c r="F310" s="7">
         <v>1</v>
       </c>
       <c r="G310" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>1512</v>
@@ -28872,16 +29105,16 @@
         <v>310</v>
       </c>
       <c r="D311" t="s">
-        <v>2101</v>
+        <v>2082</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>2099</v>
+        <v>2080</v>
       </c>
       <c r="F311" s="7">
         <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>2100</v>
+        <v>2081</v>
       </c>
       <c r="H311" t="s">
         <v>1519</v>
@@ -28937,13 +29170,13 @@
         <v>1521</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>2102</v>
+        <v>2083</v>
       </c>
       <c r="F312" s="7">
         <v>1</v>
       </c>
       <c r="G312" t="s">
-        <v>2109</v>
+        <v>2090</v>
       </c>
       <c r="H312" t="s">
         <v>1619</v>
@@ -28999,13 +29232,13 @@
         <v>1527</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>2110</v>
+        <v>2091</v>
       </c>
       <c r="F313" s="7">
         <v>1</v>
       </c>
       <c r="G313" t="s">
-        <v>2139</v>
+        <v>2120</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>1528</v>
@@ -29061,7 +29294,7 @@
         <v>1536</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>2140</v>
+        <v>2121</v>
       </c>
       <c r="F314" s="7">
         <v>1</v>
@@ -29120,16 +29353,16 @@
         <v>314</v>
       </c>
       <c r="D315" t="s">
-        <v>2142</v>
+        <v>2123</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>2141</v>
+        <v>2122</v>
       </c>
       <c r="F315" s="7">
         <v>1</v>
       </c>
       <c r="G315" t="s">
-        <v>2143</v>
+        <v>2124</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>1539</v>
@@ -29185,13 +29418,13 @@
         <v>1638</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>2185</v>
+        <v>2166</v>
       </c>
       <c r="F316" s="7">
         <v>1</v>
       </c>
       <c r="G316" t="s">
-        <v>2144</v>
+        <v>2125</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>1557</v>
@@ -29206,7 +29439,7 @@
         <v>1558</v>
       </c>
       <c r="L316" t="s">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="M316" t="s">
         <v>1619</v>
@@ -29247,13 +29480,13 @@
         <v>1560</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>2145</v>
+        <v>2126</v>
       </c>
       <c r="F317" s="7">
         <v>1</v>
       </c>
       <c r="G317" t="s">
-        <v>2149</v>
+        <v>2130</v>
       </c>
       <c r="H317" t="s">
         <v>1619</v>
@@ -29309,7 +29542,7 @@
         <v>1568</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>2150</v>
+        <v>2131</v>
       </c>
       <c r="F318" s="7">
         <v>1</v>
@@ -29368,16 +29601,16 @@
         <v>318</v>
       </c>
       <c r="D319" t="s">
-        <v>2157</v>
+        <v>2138</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>2151</v>
+        <v>2132</v>
       </c>
       <c r="F319" s="7">
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>2168</v>
+        <v>2149</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>1571</v>
@@ -29433,7 +29666,7 @@
         <v>1574</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>2158</v>
+        <v>2139</v>
       </c>
       <c r="F320" s="7">
         <v>1</v>
@@ -29495,13 +29728,13 @@
         <v>1594</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>2169</v>
+        <v>2150</v>
       </c>
       <c r="F321" s="7">
         <v>2</v>
       </c>
       <c r="G321" t="s">
-        <v>2170</v>
+        <v>2151</v>
       </c>
       <c r="H321" t="s">
         <v>1619</v>
@@ -29557,13 +29790,13 @@
         <v>1600</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>2171</v>
+        <v>2152</v>
       </c>
       <c r="F322" s="7">
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>2172</v>
+        <v>2153</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>1597</v>
@@ -29619,7 +29852,7 @@
         <v>1602</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>2173</v>
+        <v>2154</v>
       </c>
       <c r="F323" s="7">
         <v>1</v>
@@ -29743,13 +29976,13 @@
         <v>1611</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>2174</v>
+        <v>2155</v>
       </c>
       <c r="F325" s="7">
         <v>1</v>
       </c>
       <c r="G325" t="s">
-        <v>2175</v>
+        <v>2156</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>1612</v>
@@ -29796,7 +30029,7 @@
         <v>1751</v>
       </c>
       <c r="B326" t="s">
-        <v>2177</v>
+        <v>2158</v>
       </c>
       <c r="C326" s="7">
         <v>325</v>
@@ -29805,13 +30038,13 @@
         <v>1618</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>2176</v>
+        <v>2157</v>
       </c>
       <c r="F326" s="7">
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>1620</v>
@@ -29855,10 +30088,10 @@
     </row>
     <row r="327" spans="1:20">
       <c r="A327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C327" s="7">
         <v>326</v>
@@ -29867,7 +30100,7 @@
         <v>1625</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>2178</v>
+        <v>2159</v>
       </c>
       <c r="F327" s="7">
         <v>1</v>
@@ -29885,42 +30118,42 @@
         <v>1628</v>
       </c>
       <c r="K327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R327" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="S327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T327" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="328" spans="1:20">
       <c r="A328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C328" s="7">
         <v>327</v>
@@ -29929,19 +30162,19 @@
         <v>1630</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>2179</v>
+        <v>2160</v>
       </c>
       <c r="F328" s="7">
         <v>1</v>
       </c>
       <c r="G328" t="s">
-        <v>2180</v>
+        <v>2161</v>
       </c>
       <c r="H328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J328" t="s">
         <v>1631</v>
@@ -29953,36 +30186,36 @@
         <v>1640</v>
       </c>
       <c r="M328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O328" t="s">
         <v>1632</v>
       </c>
       <c r="P328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T328" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="329" spans="1:20">
       <c r="A329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C329" s="7">
         <v>328</v>
@@ -29991,19 +30224,19 @@
         <v>1635</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>2181</v>
+        <v>2162</v>
       </c>
       <c r="F329" s="7">
         <v>1</v>
       </c>
       <c r="G329" t="s">
-        <v>2182</v>
+        <v>2163</v>
       </c>
       <c r="H329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J329" t="s">
         <v>1631</v>
@@ -30015,36 +30248,36 @@
         <v>1640</v>
       </c>
       <c r="M329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T329" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="330" spans="1:20">
       <c r="A330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C330" s="7">
         <v>329</v>
@@ -30062,10 +30295,10 @@
         <v>1650</v>
       </c>
       <c r="H330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J330" t="s">
         <v>1641</v>
@@ -30077,36 +30310,36 @@
         <v>1640</v>
       </c>
       <c r="M330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T330" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="331" spans="1:20">
       <c r="A331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C331" s="7">
         <v>330</v>
@@ -30115,19 +30348,19 @@
         <v>1642</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>2183</v>
+        <v>2164</v>
       </c>
       <c r="F331" s="7">
         <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>2186</v>
+        <v>2167</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>1643</v>
       </c>
       <c r="I331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J331" t="s">
         <v>1631</v>
@@ -30139,36 +30372,36 @@
         <v>1640</v>
       </c>
       <c r="M331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R331" t="s">
         <v>1644</v>
       </c>
       <c r="S331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T331" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="332" spans="1:20">
       <c r="A332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C332" s="7">
         <v>331</v>
@@ -30177,19 +30410,19 @@
         <v>1645</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>2184</v>
+        <v>2165</v>
       </c>
       <c r="F332" s="7">
         <v>1</v>
       </c>
       <c r="G332" t="s">
-        <v>2187</v>
+        <v>2168</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>1648</v>
       </c>
       <c r="I332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J332" t="s">
         <v>1646</v>
@@ -30201,36 +30434,36 @@
         <v>1647</v>
       </c>
       <c r="M332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R332" s="24" t="s">
         <v>1649</v>
       </c>
       <c r="S332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T332" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="333" spans="1:20">
       <c r="A333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C333" s="7">
         <v>332</v>
@@ -30239,60 +30472,60 @@
         <v>1651</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>2188</v>
+        <v>2169</v>
       </c>
       <c r="F333" s="7">
         <v>1</v>
       </c>
       <c r="G333" t="s">
-        <v>2189</v>
+        <v>2170</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>1652</v>
       </c>
       <c r="I333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J333" t="s">
         <v>1655</v>
       </c>
       <c r="K333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R333" s="24" t="s">
         <v>1653</v>
       </c>
       <c r="S333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T333" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="334" spans="1:20">
       <c r="A334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C334" s="7">
         <v>333</v>
@@ -30301,60 +30534,60 @@
         <v>1654</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>2190</v>
+        <v>2171</v>
       </c>
       <c r="F334" s="7">
         <v>1</v>
       </c>
       <c r="G334" t="s">
-        <v>2191</v>
+        <v>2172</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>1914</v>
+        <v>1898</v>
       </c>
       <c r="I334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J334" t="s">
         <v>1631</v>
       </c>
       <c r="K334" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="L334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T334" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="335" spans="1:20">
       <c r="A335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C335" s="7">
         <v>334</v>
@@ -30363,60 +30596,60 @@
         <v>1656</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>2192</v>
+        <v>2173</v>
       </c>
       <c r="F335" s="7">
         <v>1</v>
       </c>
       <c r="G335" t="s">
-        <v>2193</v>
+        <v>2174</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>1657</v>
       </c>
       <c r="I335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J335" t="s">
         <v>1659</v>
       </c>
       <c r="K335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O335" s="1" t="s">
         <v>1658</v>
       </c>
       <c r="P335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T335" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="336" spans="1:20">
       <c r="A336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C336" s="7">
         <v>335</v>
@@ -30425,60 +30658,60 @@
         <v>1660</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>2194</v>
+        <v>2175</v>
       </c>
       <c r="F336" s="7">
         <v>1</v>
       </c>
       <c r="G336" t="s">
-        <v>2195</v>
+        <v>2176</v>
       </c>
       <c r="H336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J336" t="s">
         <v>1661</v>
       </c>
       <c r="K336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T336" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C337" s="7">
         <v>336</v>
@@ -30487,7 +30720,7 @@
         <v>1662</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>2196</v>
+        <v>2177</v>
       </c>
       <c r="F337" s="7">
         <v>1</v>
@@ -30505,42 +30738,42 @@
         <v>1665</v>
       </c>
       <c r="K337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T337" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C338" s="7">
         <v>337</v>
@@ -30549,60 +30782,60 @@
         <v>1666</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>2198</v>
+        <v>2179</v>
       </c>
       <c r="F338" s="7">
         <v>1</v>
       </c>
       <c r="G338" t="s">
-        <v>2199</v>
+        <v>2180</v>
       </c>
       <c r="H338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J338" t="s">
         <v>1667</v>
       </c>
       <c r="K338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T338" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="339" spans="1:20" ht="21">
       <c r="A339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C339" s="7">
         <v>338</v>
@@ -30611,19 +30844,19 @@
         <v>1670</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>2200</v>
+        <v>2181</v>
       </c>
       <c r="F339" s="7">
         <v>1</v>
       </c>
       <c r="G339" t="s">
-        <v>2212</v>
+        <v>2193</v>
       </c>
       <c r="H339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J339" t="s">
         <v>1671</v>
@@ -30635,33 +30868,33 @@
         <v>1673</v>
       </c>
       <c r="M339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T339" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="340" spans="1:20">
       <c r="A340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B340" t="s">
         <v>1679</v>
@@ -30673,7 +30906,7 @@
         <v>1676</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>2213</v>
+        <v>2194</v>
       </c>
       <c r="F340" s="7">
         <v>1</v>
@@ -30682,43 +30915,43 @@
         <v>247</v>
       </c>
       <c r="H340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J340" t="s">
         <v>1678</v>
       </c>
       <c r="K340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R340" t="s">
         <v>1677</v>
       </c>
       <c r="S340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T340" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="341" spans="1:20">
@@ -30735,57 +30968,57 @@
         <v>1683</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>2214</v>
+        <v>2195</v>
       </c>
       <c r="F341" s="7">
         <v>1</v>
       </c>
       <c r="G341" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>1684</v>
       </c>
       <c r="I341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J341" t="s">
         <v>1687</v>
       </c>
       <c r="K341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L341" t="s">
         <v>1686</v>
       </c>
       <c r="M341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R341" s="24" t="s">
         <v>1685</v>
       </c>
       <c r="S341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T341" s="1" t="s">
-        <v>2215</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="342" spans="1:20" ht="15.75">
       <c r="A342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B342" t="s">
         <v>1695</v>
@@ -30797,19 +31030,19 @@
         <v>1693</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>2216</v>
+        <v>2197</v>
       </c>
       <c r="F342" s="7">
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>2227</v>
+        <v>2208</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>1694</v>
       </c>
       <c r="I342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J342" t="s">
         <v>1692</v>
@@ -30821,36 +31054,36 @@
         <v>1691</v>
       </c>
       <c r="M342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O342" s="1" t="s">
         <v>1696</v>
       </c>
       <c r="P342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T342" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="343" spans="1:20" ht="15.75">
       <c r="A343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C343" s="7">
         <v>342</v>
@@ -30859,19 +31092,19 @@
         <v>1699</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>2222</v>
+        <v>2203</v>
       </c>
       <c r="F343" s="7">
         <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>2226</v>
+        <v>2207</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>1698</v>
       </c>
       <c r="I343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J343" t="s">
         <v>1697</v>
@@ -30883,33 +31116,33 @@
         <v>1691</v>
       </c>
       <c r="M343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R343" s="1" t="s">
         <v>1700</v>
       </c>
       <c r="S343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T343" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="344" spans="1:20" ht="15.75">
       <c r="A344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B344" t="s">
         <v>1707</v>
@@ -30921,19 +31154,19 @@
         <v>1701</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>2223</v>
+        <v>2204</v>
       </c>
       <c r="F344" s="7">
         <v>1</v>
       </c>
       <c r="G344" t="s">
-        <v>2225</v>
+        <v>2206</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>1702</v>
       </c>
       <c r="I344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J344" t="s">
         <v>1705</v>
@@ -30945,19 +31178,19 @@
         <v>1691</v>
       </c>
       <c r="M344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R344" s="1" t="s">
         <v>1703</v>
@@ -30966,15 +31199,15 @@
         <v>1706</v>
       </c>
       <c r="T344" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="345" spans="1:20" ht="15.75">
       <c r="A345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C345" s="7">
         <v>344</v>
@@ -30983,16 +31216,16 @@
         <v>1708</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>2224</v>
+        <v>2205</v>
       </c>
       <c r="F345" s="7">
         <v>1</v>
       </c>
       <c r="G345" t="s">
-        <v>2228</v>
+        <v>2209</v>
       </c>
       <c r="H345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>1712</v>
@@ -31007,36 +31240,36 @@
         <v>1691</v>
       </c>
       <c r="M345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P345" s="1" t="s">
         <v>1709</v>
       </c>
       <c r="Q345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R345" t="s">
         <v>1710</v>
       </c>
       <c r="S345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T345" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C346" s="7">
         <v>345</v>
@@ -31051,54 +31284,54 @@
         <v>1</v>
       </c>
       <c r="G346" t="s">
-        <v>2237</v>
+        <v>2218</v>
       </c>
       <c r="H346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J346" t="s">
-        <v>2229</v>
+        <v>2210</v>
       </c>
       <c r="K346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O346" s="1" t="s">
         <v>1714</v>
       </c>
       <c r="P346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T346" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C347" s="7">
         <v>346</v>
@@ -31107,52 +31340,52 @@
         <v>1716</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>2238</v>
+        <v>2219</v>
       </c>
       <c r="F347" s="7">
         <v>1</v>
       </c>
       <c r="G347" t="s">
-        <v>2244</v>
+        <v>2225</v>
       </c>
       <c r="H347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J347" t="s">
         <v>1717</v>
       </c>
       <c r="K347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L347" t="s">
         <v>1719</v>
       </c>
       <c r="M347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R347" s="1" t="s">
         <v>1718</v>
       </c>
       <c r="S347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T347" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="348" spans="1:20" ht="15">
@@ -31160,7 +31393,7 @@
         <v>1750</v>
       </c>
       <c r="B348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C348" s="7">
         <v>347</v>
@@ -31169,19 +31402,19 @@
         <v>1726</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>2245</v>
+        <v>2226</v>
       </c>
       <c r="F348" s="7">
         <v>1</v>
       </c>
       <c r="G348" t="s">
-        <v>2247</v>
+        <v>2228</v>
       </c>
       <c r="H348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J348" t="s">
         <v>1724</v>
@@ -31193,36 +31426,36 @@
         <v>1723</v>
       </c>
       <c r="M348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O348" s="1" t="s">
         <v>1730</v>
       </c>
       <c r="P348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R348" t="s">
         <v>1725</v>
       </c>
       <c r="S348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T348" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C349" s="7">
         <v>348</v>
@@ -31231,60 +31464,60 @@
         <v>1727</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>2248</v>
+        <v>2229</v>
       </c>
       <c r="F349" s="7">
         <v>1</v>
       </c>
       <c r="G349" t="s">
-        <v>2249</v>
+        <v>2230</v>
       </c>
       <c r="H349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J349" t="s">
         <v>1728</v>
       </c>
       <c r="K349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T349" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="350" spans="1:20" ht="16.5">
       <c r="A350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C350" s="7">
         <v>349</v>
@@ -31293,16 +31526,16 @@
         <v>1736</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>2250</v>
+        <v>2231</v>
       </c>
       <c r="F350" s="7">
         <v>1</v>
       </c>
       <c r="G350" t="s">
-        <v>1762</v>
+        <v>2232</v>
       </c>
       <c r="H350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I350" s="1" t="s">
         <v>1740</v>
@@ -31317,3748 +31550,4368 @@
         <v>1739</v>
       </c>
       <c r="M350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O350" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="P350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R350" t="s">
         <v>1741</v>
       </c>
       <c r="S350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T350" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="351" spans="1:20" ht="14.25">
       <c r="A351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B351" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C351" s="7">
         <v>350</v>
       </c>
       <c r="D351" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1754</v>
+        <v>2233</v>
       </c>
       <c r="F351" s="7">
         <v>1</v>
       </c>
-      <c r="G351" t="s">
-        <v>1762</v>
+      <c r="G351">
+        <v>260</v>
       </c>
       <c r="H351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J351" t="s">
         <v>1659</v>
       </c>
       <c r="K351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S351" s="31" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="T351" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C352" s="7">
         <v>351</v>
       </c>
       <c r="D352" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F352" s="7">
+        <v>1</v>
+      </c>
+      <c r="G352" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H352" t="s">
         <v>1760</v>
       </c>
-      <c r="E352" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F352" s="7">
-        <v>1</v>
-      </c>
-      <c r="G352" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H352" t="s">
-        <v>1762</v>
-      </c>
       <c r="I352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J352" t="s">
         <v>1631</v>
       </c>
       <c r="K352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="L352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="M352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="N352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="O352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P352" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="Q352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="R352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="S352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="T352" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C353" s="7">
         <v>352</v>
       </c>
       <c r="D353" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F353" s="7">
+        <v>1</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="J353" t="s">
         <v>1784</v>
       </c>
-      <c r="E353" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="F353" s="7">
-        <v>1</v>
-      </c>
-      <c r="G353" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H353" s="1" t="s">
+      <c r="K353" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L353" t="s">
         <v>1783</v>
       </c>
-      <c r="I353" s="1" t="s">
-        <v>1787</v>
-      </c>
-      <c r="J353" t="s">
-        <v>1786</v>
-      </c>
-      <c r="K353" t="s">
-        <v>1885</v>
-      </c>
-      <c r="L353" t="s">
-        <v>1785</v>
-      </c>
       <c r="M353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T353" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="354" spans="1:20">
       <c r="A354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C354" s="7">
         <v>353</v>
       </c>
       <c r="D354" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1788</v>
+        <v>2236</v>
       </c>
       <c r="F354" s="7">
         <v>1</v>
       </c>
       <c r="G354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="H354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J354" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="K354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T354" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="355" spans="1:20">
       <c r="A355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C355" s="7">
         <v>354</v>
       </c>
       <c r="D355" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1797</v>
+        <v>2237</v>
       </c>
       <c r="F355" s="7">
         <v>1</v>
       </c>
       <c r="G355" t="s">
-        <v>1885</v>
+        <v>2238</v>
       </c>
       <c r="H355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I355" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J355" t="s">
         <v>1798</v>
       </c>
-      <c r="J355" t="s">
-        <v>1802</v>
-      </c>
       <c r="K355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O355" s="1" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="P355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S355" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="T355" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="356" spans="1:20">
       <c r="A356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C356" s="7">
         <v>355</v>
       </c>
       <c r="D356" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1813</v>
+        <v>2239</v>
       </c>
       <c r="F356" s="7">
         <v>1</v>
       </c>
-      <c r="G356" t="s">
-        <v>1885</v>
+      <c r="G356">
+        <v>270</v>
       </c>
       <c r="H356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J356" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="K356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O356" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="P356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T356" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="357" spans="1:20">
       <c r="A357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C357" s="7">
         <v>356</v>
       </c>
       <c r="D357" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1817</v>
+        <v>2240</v>
       </c>
       <c r="F357" s="7">
         <v>1</v>
       </c>
-      <c r="G357" t="s">
-        <v>1885</v>
+      <c r="G357">
+        <v>270</v>
       </c>
       <c r="H357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J357" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="K357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O357" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="P357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R357" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="S357" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="T357" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="358" spans="1:20">
       <c r="A358" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="B358" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="C358" s="7">
         <v>357</v>
       </c>
       <c r="D358" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1823</v>
+        <v>2241</v>
       </c>
       <c r="F358" s="7">
         <v>2</v>
       </c>
-      <c r="G358" t="s">
-        <v>1885</v>
+      <c r="G358">
+        <v>270</v>
       </c>
       <c r="H358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J358" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="K358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T358" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="359" spans="1:20">
       <c r="A359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C359" s="7">
         <v>358</v>
       </c>
       <c r="D359" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1831</v>
+        <v>2242</v>
       </c>
       <c r="F359" s="7">
         <v>1</v>
       </c>
       <c r="G359" t="s">
-        <v>1885</v>
+        <v>2243</v>
       </c>
       <c r="H359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J359" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="K359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T359" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="360" spans="1:20">
       <c r="A360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C360" s="7">
         <v>359</v>
       </c>
       <c r="D360" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1834</v>
+        <v>2244</v>
       </c>
       <c r="F360" s="7">
         <v>1</v>
       </c>
-      <c r="G360">
-        <v>360</v>
+      <c r="G360" t="s">
+        <v>2250</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="I360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J360" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
       <c r="K360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L360" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="M360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R360" s="1" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
       <c r="S360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T360" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="361" spans="1:20">
       <c r="A361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C361" s="7">
         <v>360</v>
       </c>
       <c r="D361" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1840</v>
+        <v>2251</v>
       </c>
       <c r="F361" s="7">
         <v>2</v>
       </c>
       <c r="G361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
       <c r="I361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J361" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="K361" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
       <c r="L361" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="M361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R361" s="1" t="s">
-        <v>1847</v>
+        <v>1837</v>
       </c>
       <c r="S361" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T361" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="362" spans="1:20">
       <c r="A362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C362" s="7">
         <v>361</v>
       </c>
       <c r="D362" t="s">
-        <v>1862</v>
+        <v>1851</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1861</v>
+        <v>2252</v>
       </c>
       <c r="F362" s="7">
         <v>1</v>
       </c>
       <c r="G362" t="s">
-        <v>1885</v>
+        <v>2253</v>
       </c>
       <c r="H362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J362" t="s">
-        <v>1863</v>
+        <v>1852</v>
       </c>
       <c r="K362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T362" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="363" spans="1:20">
       <c r="A363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C363" s="7">
         <v>362</v>
       </c>
       <c r="D363" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1864</v>
+        <v>2254</v>
       </c>
       <c r="F363" s="7">
         <v>1</v>
       </c>
       <c r="G363" t="s">
-        <v>1885</v>
+        <v>2255</v>
       </c>
       <c r="H363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J363" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
       <c r="K363" s="32" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="L363" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="M363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R363" s="1" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
       <c r="S363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T363" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="364" spans="1:20">
       <c r="A364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C364" s="7">
         <v>363</v>
       </c>
       <c r="D364" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
       <c r="E364" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F364" s="7">
+        <v>1</v>
+      </c>
+      <c r="G364" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="I364" t="s">
         <v>1869</v>
       </c>
-      <c r="F364" s="7">
-        <v>1</v>
-      </c>
-      <c r="G364" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H364" s="1" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I364" t="s">
-        <v>1885</v>
-      </c>
       <c r="J364" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="K364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L364" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="M364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T364" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="365" spans="1:20">
       <c r="A365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C365" s="7">
         <v>364</v>
       </c>
       <c r="D365" t="s">
-        <v>1873</v>
+        <v>1859</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1872</v>
+        <v>2258</v>
       </c>
       <c r="F365" s="7">
         <v>1</v>
       </c>
       <c r="G365" t="s">
-        <v>1885</v>
+        <v>2259</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>1874</v>
+        <v>1860</v>
       </c>
       <c r="I365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J365" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="K365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L365" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="M365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T365" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="366" spans="1:20">
       <c r="A366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C366" s="7">
         <v>365</v>
       </c>
       <c r="D366" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1875</v>
+        <v>2260</v>
       </c>
       <c r="F366" s="7">
         <v>1</v>
       </c>
-      <c r="G366" t="s">
-        <v>1885</v>
+      <c r="G366" s="7" t="s">
+        <v>2264</v>
       </c>
       <c r="H366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="I366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J366" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="K366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L366" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="M366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="S366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T366" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="367" spans="1:20">
       <c r="A367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C367" s="7">
         <v>366</v>
       </c>
       <c r="D367" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1879</v>
+        <v>2261</v>
       </c>
       <c r="F367" s="7">
         <v>1</v>
       </c>
-      <c r="G367" t="s">
-        <v>2197</v>
+      <c r="G367">
+        <v>276</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
       <c r="I367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="J367" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
       <c r="K367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="L367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="M367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="N367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="O367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="P367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="Q367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="R367" s="1" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="S367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="T367" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="368" spans="1:20">
       <c r="A368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C368" s="7">
         <v>367</v>
       </c>
       <c r="D368" t="s">
-        <v>1894</v>
+        <v>1878</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1893</v>
+        <v>1877</v>
       </c>
       <c r="F368" s="7">
         <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>1920</v>
+        <v>1904</v>
       </c>
       <c r="H368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J368" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
       <c r="K368" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="L368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R368" s="1" t="s">
-        <v>1896</v>
+        <v>1880</v>
       </c>
       <c r="S368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T368" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B369" t="s">
-        <v>1913</v>
+        <v>1897</v>
       </c>
       <c r="C369" s="7">
         <v>368</v>
       </c>
       <c r="D369" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1905</v>
+        <v>1889</v>
       </c>
       <c r="F369" s="7">
         <v>1</v>
       </c>
       <c r="G369" t="s">
-        <v>2197</v>
+        <v>2289</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="J369" t="s">
-        <v>1912</v>
+        <v>1896</v>
       </c>
       <c r="K369" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="L369" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M369" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N369" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O369" s="1" t="s">
-        <v>1911</v>
+        <v>1895</v>
       </c>
       <c r="P369" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="Q369" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R369" s="1" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="S369" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T369" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C370" s="7">
         <v>369</v>
       </c>
       <c r="D370" t="s">
-        <v>1918</v>
+        <v>1902</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1917</v>
+        <v>1901</v>
       </c>
       <c r="F370" s="7">
         <v>1</v>
       </c>
       <c r="G370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J370" t="s">
-        <v>1919</v>
+        <v>1903</v>
       </c>
       <c r="K370" t="s">
-        <v>1894</v>
+        <v>1878</v>
       </c>
       <c r="L370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T370" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C371" s="7">
         <v>370</v>
       </c>
       <c r="D371" t="s">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1922</v>
+        <v>1906</v>
       </c>
       <c r="F371" s="7">
         <v>1</v>
       </c>
       <c r="G371" t="s">
-        <v>2197</v>
+        <v>2268</v>
       </c>
       <c r="H371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J371" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
       <c r="K371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T371" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C372" s="7">
         <v>371</v>
       </c>
       <c r="D372" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1925</v>
+        <v>2269</v>
       </c>
       <c r="F372" s="7">
         <v>1</v>
       </c>
       <c r="G372" t="s">
-        <v>2197</v>
+        <v>2270</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
       <c r="I372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J372" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
       <c r="K372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T372" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C373" s="7">
         <v>372</v>
       </c>
       <c r="D373" t="s">
-        <v>1934</v>
+        <v>1917</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1931</v>
+        <v>1914</v>
       </c>
       <c r="F373" s="7">
         <v>1</v>
       </c>
       <c r="G373" t="s">
-        <v>2197</v>
+        <v>2271</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>1932</v>
+        <v>1915</v>
       </c>
       <c r="I373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J373" t="s">
-        <v>1935</v>
+        <v>1918</v>
       </c>
       <c r="K373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R373" s="1" t="s">
-        <v>1933</v>
+        <v>1916</v>
       </c>
       <c r="S373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T373" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="374" spans="1:20">
       <c r="A374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C374" s="7">
         <v>373</v>
       </c>
       <c r="D374" t="s">
-        <v>1938</v>
+        <v>1921</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1937</v>
+        <v>1920</v>
       </c>
       <c r="F374" s="7">
         <v>1</v>
       </c>
       <c r="G374" t="s">
-        <v>2197</v>
+        <v>2272</v>
       </c>
       <c r="H374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J374" t="s">
-        <v>1939</v>
+        <v>1922</v>
       </c>
       <c r="K374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T374" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C375" s="7">
         <v>374</v>
       </c>
       <c r="D375" t="s">
-        <v>1944</v>
+        <v>1927</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1945</v>
+        <v>1928</v>
       </c>
       <c r="F375" s="7">
         <v>1</v>
       </c>
       <c r="G375" t="s">
-        <v>2197</v>
+        <v>2289</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>1947</v>
+        <v>1930</v>
       </c>
       <c r="I375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J375" t="s">
-        <v>1946</v>
+        <v>1929</v>
       </c>
       <c r="K375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S375" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T375" t="s">
-        <v>1948</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C376" s="7">
         <v>375</v>
       </c>
       <c r="D376" t="s">
-        <v>1956</v>
+        <v>1939</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1953</v>
+        <v>1936</v>
       </c>
       <c r="F376" s="7">
         <v>1</v>
       </c>
       <c r="G376" t="s">
-        <v>2197</v>
+        <v>2278</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>1954</v>
+        <v>1937</v>
       </c>
       <c r="I376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J376" t="s">
-        <v>1957</v>
+        <v>1940</v>
       </c>
       <c r="K376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S376" t="s">
-        <v>1955</v>
+        <v>1938</v>
       </c>
       <c r="T376" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="377" spans="1:20">
       <c r="A377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C377" s="7">
         <v>376</v>
       </c>
       <c r="D377" t="s">
-        <v>1959</v>
+        <v>1942</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1958</v>
+        <v>1941</v>
       </c>
       <c r="F377" s="7">
         <v>1</v>
       </c>
       <c r="G377" t="s">
-        <v>2197</v>
+        <v>2281</v>
       </c>
       <c r="H377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J377" t="s">
-        <v>1957</v>
+        <v>1940</v>
       </c>
       <c r="K377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S377" t="s">
-        <v>1960</v>
+        <v>1943</v>
       </c>
       <c r="T377" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="378" spans="1:20" ht="14.25">
       <c r="A378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C378" s="7">
         <v>377</v>
       </c>
       <c r="D378" t="s">
-        <v>1962</v>
+        <v>1944</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1961</v>
+        <v>2282</v>
       </c>
       <c r="F378" s="7">
         <v>1</v>
       </c>
       <c r="G378" t="s">
-        <v>2197</v>
+        <v>2285</v>
       </c>
       <c r="H378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J378" t="s">
-        <v>1964</v>
+        <v>1946</v>
       </c>
       <c r="K378" s="33" t="s">
-        <v>1963</v>
+        <v>1945</v>
       </c>
       <c r="L378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R378" s="1" t="s">
-        <v>1965</v>
+        <v>1947</v>
       </c>
       <c r="S378" t="s">
-        <v>1966</v>
+        <v>1948</v>
       </c>
       <c r="T378" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="379" spans="1:20">
       <c r="A379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C379" s="7">
         <v>378</v>
       </c>
       <c r="D379" t="s">
-        <v>1968</v>
+        <v>1950</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1967</v>
+        <v>1949</v>
       </c>
       <c r="F379" s="7">
         <v>1</v>
       </c>
       <c r="G379" t="s">
-        <v>2197</v>
+        <v>2286</v>
       </c>
       <c r="H379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J379" t="s">
-        <v>1969</v>
+        <v>1951</v>
       </c>
       <c r="K379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L379" t="s">
-        <v>1970</v>
+        <v>1952</v>
       </c>
       <c r="M379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T379" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C380" s="7">
         <v>379</v>
       </c>
       <c r="D380" t="s">
-        <v>1974</v>
+        <v>1956</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1973</v>
+        <v>1955</v>
       </c>
       <c r="F380" s="7">
         <v>1</v>
       </c>
       <c r="G380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>1975</v>
+        <v>1957</v>
       </c>
       <c r="I380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J380" t="s">
-        <v>1977</v>
+        <v>1959</v>
       </c>
       <c r="K380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O380" t="s">
-        <v>1976</v>
+        <v>1958</v>
       </c>
       <c r="P380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T380" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C381" s="7">
         <v>380</v>
       </c>
       <c r="D381" t="s">
-        <v>1980</v>
+        <v>1962</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1978</v>
+        <v>1960</v>
       </c>
       <c r="F381" s="7">
         <v>1</v>
       </c>
       <c r="G381" t="s">
-        <v>2197</v>
+        <v>2289</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>1979</v>
+        <v>1961</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>1982</v>
+        <v>1964</v>
       </c>
       <c r="J381" t="s">
-        <v>1984</v>
+        <v>1966</v>
       </c>
       <c r="K381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L381" t="s">
-        <v>1985</v>
+        <v>1967</v>
       </c>
       <c r="M381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O381" t="s">
-        <v>1983</v>
+        <v>1965</v>
       </c>
       <c r="P381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R381" s="1" t="s">
-        <v>1981</v>
+        <v>1963</v>
       </c>
       <c r="S381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T381" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="382" spans="1:20">
       <c r="A382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C382" s="7">
         <v>381</v>
       </c>
       <c r="D382" t="s">
-        <v>1989</v>
+        <v>1971</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1988</v>
+        <v>1970</v>
       </c>
       <c r="F382" s="7">
         <v>1</v>
       </c>
-      <c r="G382" t="s">
-        <v>2197</v>
+      <c r="G382">
+        <v>287</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>1990</v>
+        <v>1972</v>
       </c>
       <c r="I382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J382" t="s">
-        <v>1992</v>
+        <v>1974</v>
       </c>
       <c r="K382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R382" t="s">
-        <v>1991</v>
+        <v>1973</v>
       </c>
       <c r="S382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T382" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C383" s="7">
         <v>382</v>
       </c>
       <c r="D383" t="s">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="F383" s="7">
         <v>1</v>
       </c>
       <c r="G383" t="s">
-        <v>2197</v>
+        <v>2287</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="I383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J383" t="s">
-        <v>1964</v>
+        <v>1946</v>
       </c>
       <c r="K383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L383" t="s">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="M383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O383" t="s">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="P383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R383" t="s">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="S383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T383" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="384" spans="1:20" ht="14.25">
       <c r="A384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C384" s="7">
         <v>383</v>
       </c>
       <c r="D384" t="s">
-        <v>2000</v>
+        <v>1981</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1999</v>
+        <v>2288</v>
       </c>
       <c r="F384" s="7">
         <v>1</v>
       </c>
       <c r="G384" t="s">
-        <v>2197</v>
+        <v>2303</v>
       </c>
       <c r="H384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J384" t="s">
-        <v>1964</v>
+        <v>1946</v>
       </c>
       <c r="K384" s="22" t="s">
-        <v>2001</v>
+        <v>1982</v>
       </c>
       <c r="L384" t="s">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="M384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S384" s="22" t="s">
-        <v>2003</v>
+        <v>1984</v>
       </c>
       <c r="T384" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C385" s="7">
         <v>384</v>
       </c>
       <c r="D385" t="s">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="F385" s="7">
         <v>1</v>
       </c>
       <c r="G385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="I385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J385" t="s">
-        <v>1964</v>
+        <v>1946</v>
       </c>
       <c r="K385" t="s">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="L385" t="s">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="M385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T385" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="386" spans="1:20" ht="16.5">
       <c r="A386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C386" s="7">
         <v>385</v>
       </c>
       <c r="D386" t="s">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
       <c r="F386" s="7">
         <v>1</v>
       </c>
       <c r="G386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>2028</v>
+        <v>2009</v>
       </c>
       <c r="I386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J386" t="s">
-        <v>2033</v>
+        <v>2014</v>
       </c>
       <c r="K386" s="34" t="s">
-        <v>2029</v>
+        <v>2010</v>
       </c>
       <c r="L386" t="s">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="M386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O386" s="1" t="s">
-        <v>2031</v>
+        <v>2012</v>
       </c>
       <c r="P386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R386" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="S386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T386" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C387" s="7">
         <v>386</v>
       </c>
       <c r="D387" t="s">
-        <v>2036</v>
+        <v>2017</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="F387" s="7">
         <v>1</v>
       </c>
       <c r="G387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J387" t="s">
-        <v>2037</v>
+        <v>2018</v>
       </c>
       <c r="K387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R387" s="1" t="s">
-        <v>2038</v>
+        <v>2019</v>
       </c>
       <c r="S387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T387" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C388" s="7">
         <v>387</v>
       </c>
       <c r="D388" t="s">
-        <v>2041</v>
+        <v>2022</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>2039</v>
+        <v>2020</v>
       </c>
       <c r="F388" s="7">
         <v>1</v>
       </c>
       <c r="G388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="I388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J388" t="s">
-        <v>2045</v>
+        <v>2026</v>
       </c>
       <c r="K388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O388" s="1" t="s">
-        <v>2043</v>
+        <v>2024</v>
       </c>
       <c r="P388" t="s">
-        <v>2042</v>
+        <v>2023</v>
       </c>
       <c r="Q388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R388" s="1" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="S388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T388" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C389" s="7">
         <v>388</v>
       </c>
       <c r="D389" t="s">
-        <v>2052</v>
+        <v>2033</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>2051</v>
+        <v>2032</v>
       </c>
       <c r="F389" s="7">
         <v>1</v>
       </c>
       <c r="G389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J389" t="s">
-        <v>2054</v>
+        <v>2035</v>
       </c>
       <c r="K389" t="s">
-        <v>2056</v>
+        <v>2037</v>
       </c>
       <c r="L389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O389" t="s">
-        <v>2053</v>
+        <v>2034</v>
       </c>
       <c r="P389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T389" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C390" s="7">
         <v>389</v>
       </c>
       <c r="D390" t="s">
-        <v>2061</v>
+        <v>2042</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>2060</v>
+        <v>2041</v>
       </c>
       <c r="F390" s="7">
         <v>1</v>
       </c>
       <c r="G390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J390" t="s">
-        <v>2037</v>
+        <v>2018</v>
       </c>
       <c r="K390" t="s">
-        <v>2062</v>
+        <v>2043</v>
       </c>
       <c r="L390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T390" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C391" s="7">
         <v>390</v>
       </c>
       <c r="D391" t="s">
-        <v>2064</v>
+        <v>2045</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>2063</v>
+        <v>2044</v>
       </c>
       <c r="F391" s="7">
         <v>1</v>
       </c>
       <c r="G391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J391" t="s">
-        <v>2065</v>
+        <v>2046</v>
       </c>
       <c r="K391" t="s">
-        <v>2066</v>
+        <v>2047</v>
       </c>
       <c r="L391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T391" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="392" spans="1:20">
       <c r="A392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C392" s="7">
         <v>391</v>
       </c>
       <c r="D392" t="s">
-        <v>2068</v>
+        <v>2049</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>2067</v>
+        <v>2048</v>
       </c>
       <c r="F392" s="7">
         <v>1</v>
       </c>
       <c r="G392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>2069</v>
+        <v>2050</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>2070</v>
+        <v>2051</v>
       </c>
       <c r="J392" t="s">
-        <v>2071</v>
+        <v>2052</v>
       </c>
       <c r="K392" t="s">
-        <v>2066</v>
+        <v>2047</v>
       </c>
       <c r="L392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T392" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C393" s="7">
         <v>392</v>
       </c>
       <c r="D393" t="s">
-        <v>2077</v>
+        <v>2058</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>2076</v>
+        <v>2057</v>
       </c>
       <c r="F393" s="7">
         <v>1</v>
       </c>
       <c r="G393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>2078</v>
+        <v>2059</v>
       </c>
       <c r="I393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J393" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="K393" t="s">
-        <v>2079</v>
+        <v>2060</v>
       </c>
       <c r="L393" t="s">
-        <v>2080</v>
+        <v>2061</v>
       </c>
       <c r="M393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O393" s="1" t="s">
-        <v>2082</v>
+        <v>2063</v>
       </c>
       <c r="P393" t="s">
-        <v>2081</v>
+        <v>2062</v>
       </c>
       <c r="Q393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R393" t="s">
-        <v>2083</v>
+        <v>2064</v>
       </c>
       <c r="S393" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T393" t="s">
-        <v>2084</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C394" s="7">
         <v>393</v>
       </c>
       <c r="D394" t="s">
-        <v>2093</v>
+        <v>2074</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>2092</v>
+        <v>2073</v>
       </c>
       <c r="F394" s="7">
         <v>1</v>
       </c>
       <c r="G394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J394" t="s">
-        <v>2094</v>
+        <v>2075</v>
       </c>
       <c r="K394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T394" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="395" spans="1:20">
       <c r="A395" t="s">
-        <v>2107</v>
+        <v>2088</v>
       </c>
       <c r="B395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C395" s="7">
         <v>394</v>
       </c>
       <c r="D395" t="s">
-        <v>2108</v>
+        <v>2089</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>2103</v>
+        <v>2084</v>
       </c>
       <c r="F395" s="7">
         <v>3</v>
       </c>
       <c r="G395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J395" t="s">
-        <v>2106</v>
+        <v>2087</v>
       </c>
       <c r="K395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L395" t="s">
-        <v>2105</v>
+        <v>2086</v>
       </c>
       <c r="M395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O395" t="s">
-        <v>2104</v>
+        <v>2085</v>
       </c>
       <c r="P395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T395" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="396" spans="1:20">
       <c r="A396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C396" s="7">
         <v>395</v>
       </c>
       <c r="D396" t="s">
-        <v>2112</v>
+        <v>2093</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>2111</v>
+        <v>2092</v>
       </c>
       <c r="F396" s="7">
         <v>1</v>
       </c>
       <c r="G396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>2113</v>
+        <v>2094</v>
       </c>
       <c r="I396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J396" t="s">
-        <v>2116</v>
+        <v>2097</v>
       </c>
       <c r="K396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P396" t="s">
-        <v>2114</v>
+        <v>2095</v>
       </c>
       <c r="Q396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R396" s="1" t="s">
-        <v>2115</v>
+        <v>2096</v>
       </c>
       <c r="S396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T396" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="397" spans="1:20">
       <c r="A397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C397" s="7">
         <v>396</v>
       </c>
       <c r="D397" t="s">
-        <v>2118</v>
+        <v>2099</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>2117</v>
+        <v>2098</v>
       </c>
       <c r="F397" s="7">
         <v>1</v>
       </c>
       <c r="G397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J397" t="s">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="K397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R397" t="s">
-        <v>2119</v>
+        <v>2100</v>
       </c>
       <c r="S397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T397" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="398" spans="1:20">
       <c r="A398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C398" s="7">
         <v>397</v>
       </c>
       <c r="D398" t="s">
-        <v>2122</v>
+        <v>2103</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>2120</v>
+        <v>2101</v>
       </c>
       <c r="F398" s="7">
         <v>1</v>
       </c>
       <c r="G398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>2121</v>
+        <v>2102</v>
       </c>
       <c r="I398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J398" t="s">
-        <v>2123</v>
+        <v>2104</v>
       </c>
       <c r="K398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T398" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="399" spans="1:20">
       <c r="A399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C399" s="7">
         <v>398</v>
       </c>
       <c r="D399" t="s">
-        <v>2125</v>
+        <v>2106</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>2124</v>
+        <v>2105</v>
       </c>
       <c r="F399" s="7">
         <v>1</v>
       </c>
       <c r="G399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J399" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
       <c r="K399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L399" t="s">
-        <v>2126</v>
+        <v>2107</v>
       </c>
       <c r="M399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T399" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="400" spans="1:20">
       <c r="A400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C400" s="7">
         <v>399</v>
       </c>
       <c r="D400" t="s">
-        <v>2128</v>
+        <v>2109</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>2127</v>
+        <v>2108</v>
       </c>
       <c r="F400" s="7">
         <v>1</v>
       </c>
       <c r="G400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J400" t="s">
-        <v>2129</v>
+        <v>2110</v>
       </c>
       <c r="K400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T400" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="401" spans="1:20" ht="17.25">
       <c r="A401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C401" s="7">
         <v>400</v>
       </c>
       <c r="D401" t="s">
-        <v>2131</v>
+        <v>2112</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>2130</v>
+        <v>2111</v>
       </c>
       <c r="F401" s="7">
         <v>1</v>
       </c>
       <c r="G401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J401" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
       <c r="K401" t="s">
-        <v>2132</v>
+        <v>2113</v>
       </c>
       <c r="L401" t="s">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="M401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S401" s="36" t="s">
-        <v>2138</v>
+        <v>2119</v>
       </c>
       <c r="T401" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="402" spans="1:20">
       <c r="A402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C402" s="7">
         <v>401</v>
       </c>
       <c r="D402" t="s">
-        <v>2133</v>
+        <v>2114</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>2135</v>
+        <v>2116</v>
       </c>
       <c r="F402" s="7">
         <v>1</v>
       </c>
       <c r="G402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>2134</v>
+        <v>2115</v>
       </c>
       <c r="I402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J402" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
       <c r="K402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O402" t="s">
-        <v>2136</v>
+        <v>2117</v>
       </c>
       <c r="P402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S402" t="s">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="T402" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="403" spans="1:20">
       <c r="A403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C403" s="7">
         <v>402</v>
       </c>
       <c r="D403" t="s">
-        <v>2147</v>
+        <v>2128</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>2146</v>
+        <v>2127</v>
       </c>
       <c r="F403" s="7">
         <v>1</v>
       </c>
       <c r="G403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="I403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="J403" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
       <c r="K403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="S403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T403" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="404" spans="1:20">
       <c r="A404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C404" s="7">
         <v>403</v>
       </c>
       <c r="D404" t="s">
-        <v>2154</v>
+        <v>2135</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>2152</v>
+        <v>2133</v>
       </c>
       <c r="F404" s="7">
         <v>1</v>
       </c>
       <c r="G404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>2153</v>
+        <v>2134</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>2155</v>
+        <v>2136</v>
       </c>
       <c r="J404" t="s">
-        <v>2159</v>
+        <v>2140</v>
       </c>
       <c r="K404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R404" s="1" t="s">
-        <v>2156</v>
+        <v>2137</v>
       </c>
       <c r="S404" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="T404" s="37" t="s">
-        <v>2160</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="405" spans="1:20">
       <c r="A405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="B405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="C405" s="7">
         <v>404</v>
       </c>
       <c r="D405" t="s">
-        <v>2167</v>
+        <v>2148</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>2161</v>
+        <v>2142</v>
       </c>
       <c r="F405" s="7">
         <v>1</v>
       </c>
       <c r="G405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>2162</v>
+        <v>2143</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>2163</v>
+        <v>2144</v>
       </c>
       <c r="J405" t="s">
-        <v>2166</v>
+        <v>2147</v>
       </c>
       <c r="K405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="L405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="N405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="O405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="P405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="Q405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="R405" s="1" t="s">
-        <v>2164</v>
+        <v>2145</v>
       </c>
       <c r="S405" t="s">
-        <v>2165</v>
+        <v>2146</v>
       </c>
       <c r="T405" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="406" spans="1:20">
       <c r="A406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="B406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="C406" s="7">
         <v>405</v>
       </c>
       <c r="D406" t="s">
-        <v>2206</v>
+        <v>2187</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>2201</v>
+        <v>2182</v>
       </c>
       <c r="F406" s="7">
         <v>1</v>
       </c>
       <c r="G406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="H406" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I406" t="s">
         <v>2202</v>
       </c>
-      <c r="I406" t="s">
-        <v>2221</v>
-      </c>
       <c r="J406" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
       <c r="K406" t="s">
-        <v>2203</v>
+        <v>2184</v>
       </c>
       <c r="L406" t="s">
-        <v>2207</v>
+        <v>2188</v>
       </c>
       <c r="M406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="N406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="O406" t="s">
-        <v>2204</v>
+        <v>2185</v>
       </c>
       <c r="P406" t="s">
-        <v>2205</v>
+        <v>2186</v>
       </c>
       <c r="Q406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="R406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="S406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="T406" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="407" spans="1:20">
       <c r="A407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="B407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="C407" s="7">
         <v>406</v>
       </c>
       <c r="D407" t="s">
-        <v>2209</v>
+        <v>2190</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>2208</v>
+        <v>2189</v>
       </c>
       <c r="F407" s="7">
         <v>1</v>
       </c>
       <c r="G407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>2210</v>
+        <v>2191</v>
       </c>
       <c r="I407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="J407" t="s">
-        <v>2211</v>
+        <v>2192</v>
       </c>
       <c r="K407" t="s">
-        <v>2203</v>
+        <v>2184</v>
       </c>
       <c r="L407" t="s">
-        <v>2207</v>
+        <v>2188</v>
       </c>
       <c r="M407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="N407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="O407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="P407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="Q407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="R407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="S407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="T407" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="408" spans="1:20">
       <c r="A408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="B408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="C408" s="7">
         <v>407</v>
       </c>
       <c r="D408" t="s">
-        <v>2218</v>
+        <v>2199</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>2217</v>
+        <v>2198</v>
       </c>
       <c r="F408" s="7">
         <v>1</v>
       </c>
       <c r="G408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>2219</v>
+        <v>2200</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>2220</v>
+        <v>2201</v>
       </c>
       <c r="J408" t="s">
-        <v>2129</v>
+        <v>2110</v>
       </c>
       <c r="K408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="L408" t="s">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="M408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="N408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="O408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="P408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="Q408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="R408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="S408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="T408" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="409" spans="1:20">
       <c r="A409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="B409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="C409" s="7">
         <v>408</v>
       </c>
       <c r="D409" t="s">
-        <v>2234</v>
+        <v>2215</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>2230</v>
+        <v>2211</v>
       </c>
       <c r="F409" s="7">
         <v>1</v>
       </c>
       <c r="G409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>2233</v>
+        <v>2214</v>
       </c>
       <c r="I409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="J409" t="s">
-        <v>2231</v>
+        <v>2212</v>
       </c>
       <c r="K409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="L409" t="s">
-        <v>2232</v>
+        <v>2213</v>
       </c>
       <c r="M409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="N409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="O409" t="s">
-        <v>2235</v>
+        <v>2216</v>
       </c>
       <c r="P409" t="s">
-        <v>2236</v>
+        <v>2217</v>
       </c>
       <c r="Q409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="R409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="S409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="T409" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="410" spans="1:20">
       <c r="A410" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="B410" t="s">
-        <v>2246</v>
+        <v>2227</v>
       </c>
       <c r="C410" s="7">
         <v>409</v>
       </c>
       <c r="D410" t="s">
-        <v>2240</v>
+        <v>2221</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>2239</v>
+        <v>2220</v>
       </c>
       <c r="F410" s="7">
         <v>1</v>
       </c>
       <c r="G410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="I410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="J410" t="s">
+        <v>2223</v>
+      </c>
+      <c r="K410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="L410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="M410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="N410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="S410" t="s">
+        <v>2227</v>
+      </c>
+      <c r="T410" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20">
+      <c r="A411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C411" s="7">
+        <v>410</v>
+      </c>
+      <c r="D411" t="s">
         <v>2246</v>
       </c>
-      <c r="H410" s="1" t="s">
-        <v>2241</v>
-      </c>
-      <c r="I410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="J410" t="s">
-        <v>2242</v>
-      </c>
-      <c r="K410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="L410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="M410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="N410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="O410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="P410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="Q410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="R410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="S410" t="s">
-        <v>2246</v>
-      </c>
-      <c r="T410" t="s">
-        <v>2243</v>
+      <c r="E411" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F411" s="7">
+        <v>1</v>
+      </c>
+      <c r="G411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="I411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J411" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O411" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="P411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="R411" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="S411" t="s">
+        <v>2289</v>
+      </c>
+      <c r="T411" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20">
+      <c r="A412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C412" s="7">
+        <v>411</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F412" s="7">
+        <v>1</v>
+      </c>
+      <c r="G412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J412" t="s">
+        <v>2104</v>
+      </c>
+      <c r="K412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="P412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="R412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="S412" t="s">
+        <v>2289</v>
+      </c>
+      <c r="T412" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20">
+      <c r="A413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C413" s="7">
+        <v>412</v>
+      </c>
+      <c r="D413" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F413" s="7">
+        <v>1</v>
+      </c>
+      <c r="G413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="I413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J413" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="P413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="R413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="S413" t="s">
+        <v>2289</v>
+      </c>
+      <c r="T413" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20">
+      <c r="A414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C414" s="7">
+        <v>413</v>
+      </c>
+      <c r="D414" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F414" s="7">
+        <v>1</v>
+      </c>
+      <c r="G414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="I414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J414" t="s">
+        <v>2276</v>
+      </c>
+      <c r="K414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="P414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="R414" t="s">
+        <v>2277</v>
+      </c>
+      <c r="S414" t="s">
+        <v>2289</v>
+      </c>
+      <c r="T414" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20">
+      <c r="A415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C415" s="7">
+        <v>414</v>
+      </c>
+      <c r="D415" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F415" s="7">
+        <v>1</v>
+      </c>
+      <c r="G415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J415" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="P415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="R415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="S415" t="s">
+        <v>2289</v>
+      </c>
+      <c r="T415" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20">
+      <c r="A416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C416" s="7">
+        <v>415</v>
+      </c>
+      <c r="D416" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F416" s="7">
+        <v>1</v>
+      </c>
+      <c r="G416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J416" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="P416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="R416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="S416" t="s">
+        <v>2289</v>
+      </c>
+      <c r="T416" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20">
+      <c r="A417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C417" s="7">
+        <v>416</v>
+      </c>
+      <c r="D417" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F417" s="7">
+        <v>1</v>
+      </c>
+      <c r="G417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="J417" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="L417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="M417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="N417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="S417" t="s">
+        <v>2227</v>
+      </c>
+      <c r="T417" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" ht="15">
+      <c r="A418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C418" s="7">
+        <v>417</v>
+      </c>
+      <c r="D418" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F418" s="7">
+        <v>1</v>
+      </c>
+      <c r="G418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="J418" t="s">
+        <v>1912</v>
+      </c>
+      <c r="K418" s="38" t="s">
+        <v>2293</v>
+      </c>
+      <c r="L418" t="s">
+        <v>2294</v>
+      </c>
+      <c r="M418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="N418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="S418" t="s">
+        <v>2227</v>
+      </c>
+      <c r="T418" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" ht="15.75">
+      <c r="A419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C419" s="7">
+        <v>418</v>
+      </c>
+      <c r="D419" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F419" s="7">
+        <v>1</v>
+      </c>
+      <c r="G419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="I419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="J419" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K419" s="39" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L419" t="s">
+        <v>1983</v>
+      </c>
+      <c r="M419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="N419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R419" s="39" t="s">
+        <v>2300</v>
+      </c>
+      <c r="S419" t="s">
+        <v>2227</v>
+      </c>
+      <c r="T419" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="420" spans="1:20">
+      <c r="A420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C420" s="7">
+        <v>419</v>
+      </c>
+      <c r="D420" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F420" s="7">
+        <v>1</v>
+      </c>
+      <c r="G420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="J420" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="L420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="M420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="N420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="S420" t="s">
+        <v>2227</v>
+      </c>
+      <c r="T420" t="s">
+        <v>2227</v>
       </c>
     </row>
   </sheetData>
@@ -36029,8 +36882,24 @@
     <hyperlink ref="H409" r:id="rId963"/>
     <hyperlink ref="E410" r:id="rId964"/>
     <hyperlink ref="H410" r:id="rId965"/>
+    <hyperlink ref="E411" r:id="rId966"/>
+    <hyperlink ref="H411" r:id="rId967"/>
+    <hyperlink ref="R411" r:id="rId968"/>
+    <hyperlink ref="O411" r:id="rId969"/>
+    <hyperlink ref="E412" r:id="rId970"/>
+    <hyperlink ref="E413" r:id="rId971"/>
+    <hyperlink ref="H413" r:id="rId972"/>
+    <hyperlink ref="E414" r:id="rId973"/>
+    <hyperlink ref="H414" r:id="rId974"/>
+    <hyperlink ref="E415" r:id="rId975"/>
+    <hyperlink ref="E416" r:id="rId976"/>
+    <hyperlink ref="E417" r:id="rId977"/>
+    <hyperlink ref="E418" r:id="rId978"/>
+    <hyperlink ref="E419" r:id="rId979"/>
+    <hyperlink ref="H419" r:id="rId980"/>
+    <hyperlink ref="E420" r:id="rId981"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId966"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId982"/>
 </worksheet>
 </file>
--- a/2018-2020国内安全圈活跃技术博主.xlsx
+++ b/2018-2020国内安全圈活跃技术博主.xlsx
@@ -7430,10 +7430,6 @@
   </si>
   <si>
     <t>Star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Follow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9935,6 +9931,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10605,8 +10605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="G435" sqref="G435"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10633,7 +10633,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>1867</v>
+        <v>2488</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1866</v>
@@ -10666,7 +10666,7 @@
         <v>1761</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>1762</v>
@@ -14486,7 +14486,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>757</v>
@@ -18537,10 +18537,10 @@
         <v>562</v>
       </c>
       <c r="K128" s="7" t="s">
+        <v>2284</v>
+      </c>
+      <c r="L128" s="7" t="s">
         <v>2285</v>
-      </c>
-      <c r="L128" s="7" t="s">
-        <v>2286</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>1107</v>
@@ -18971,10 +18971,10 @@
         <v>266</v>
       </c>
       <c r="K135" s="7" t="s">
+        <v>2284</v>
+      </c>
+      <c r="L135" s="7" t="s">
         <v>2285</v>
-      </c>
-      <c r="L135" s="7" t="s">
-        <v>2286</v>
       </c>
       <c r="M135" s="7" t="s">
         <v>1107</v>
@@ -22788,7 +22788,7 @@
         <v>1390</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C197" s="7">
         <v>196</v>
@@ -22815,7 +22815,7 @@
         <v>893</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="L197" s="7" t="s">
         <v>1107</v>
@@ -22847,10 +22847,10 @@
     </row>
     <row r="198" spans="1:20">
       <c r="A198" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C198" s="7">
         <v>197</v>
@@ -22865,7 +22865,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="H198" s="7" t="s">
         <v>1107</v>
@@ -23308,7 +23308,7 @@
         <v>1107</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K205" s="7" t="s">
         <v>1107</v>
@@ -23373,7 +23373,7 @@
         <v>938</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="L206" s="7" t="s">
         <v>1107</v>
@@ -24799,7 +24799,7 @@
         <v>1044</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="L229" s="7" t="s">
         <v>1049</v>
@@ -26337,7 +26337,7 @@
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="H254" t="s">
         <v>1187</v>
@@ -26393,7 +26393,7 @@
         <v>1196</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F255" s="7">
         <v>1</v>
@@ -27025,13 +27025,13 @@
         <v>1263</v>
       </c>
       <c r="I265" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="J265" s="7" t="s">
         <v>1895</v>
       </c>
-      <c r="J265" s="7" t="s">
-        <v>1896</v>
-      </c>
       <c r="K265" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="L265" t="s">
         <v>1264</v>
@@ -27630,7 +27630,7 @@
         <v>274</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>1320</v>
@@ -27819,13 +27819,13 @@
         <v>1327</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="F278" s="7">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>1328</v>
@@ -27834,10 +27834,10 @@
         <v>1329</v>
       </c>
       <c r="J278" s="7" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K278" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="L278" t="s">
         <v>1390</v>
@@ -27864,7 +27864,7 @@
         <v>1390</v>
       </c>
       <c r="T278" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -27881,7 +27881,7 @@
         <v>1837</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F279" s="7">
         <v>1</v>
@@ -27943,7 +27943,7 @@
         <v>1333</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F280" s="7">
         <v>1</v>
@@ -28005,13 +28005,13 @@
         <v>1337</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F281" s="7">
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H281" t="s">
         <v>1390</v>
@@ -28067,13 +28067,13 @@
         <v>1346</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F282" s="7">
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>1347</v>
@@ -28129,13 +28129,13 @@
         <v>1351</v>
       </c>
       <c r="E283" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F283" s="7">
+        <v>1</v>
+      </c>
+      <c r="G283" t="s">
         <v>1919</v>
-      </c>
-      <c r="F283" s="7">
-        <v>1</v>
-      </c>
-      <c r="G283" t="s">
-        <v>1920</v>
       </c>
       <c r="H283" t="s">
         <v>1390</v>
@@ -28191,13 +28191,13 @@
         <v>1354</v>
       </c>
       <c r="E284" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F284" s="7">
+        <v>1</v>
+      </c>
+      <c r="G284" t="s">
         <v>1921</v>
-      </c>
-      <c r="F284" s="7">
-        <v>1</v>
-      </c>
-      <c r="G284" t="s">
-        <v>1922</v>
       </c>
       <c r="H284" t="s">
         <v>1390</v>
@@ -28253,13 +28253,13 @@
         <v>1356</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F285" s="7">
         <v>1</v>
       </c>
       <c r="G285" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H285" t="s">
         <v>1390</v>
@@ -28271,7 +28271,7 @@
         <v>1357</v>
       </c>
       <c r="K285" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="L285" t="s">
         <v>1390</v>
@@ -28315,13 +28315,13 @@
         <v>1358</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F286" s="7">
         <v>1</v>
       </c>
       <c r="G286" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H286" t="s">
         <v>1390</v>
@@ -28377,13 +28377,13 @@
         <v>1360</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F287" s="7">
         <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>1361</v>
@@ -28439,13 +28439,13 @@
         <v>1365</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F288" s="7">
         <v>1</v>
       </c>
       <c r="G288" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>1364</v>
@@ -28501,13 +28501,13 @@
         <v>1375</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F289" s="7">
         <v>2</v>
       </c>
       <c r="G289" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H289" t="s">
         <v>1390</v>
@@ -28563,7 +28563,7 @@
         <v>1380</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F290" s="7">
         <v>2</v>
@@ -28625,13 +28625,13 @@
         <v>1378</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F291" s="7">
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H291" t="s">
         <v>1390</v>
@@ -28687,13 +28687,13 @@
         <v>1396</v>
       </c>
       <c r="E292" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F292" s="7">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
         <v>1985</v>
-      </c>
-      <c r="F292" s="7">
-        <v>1</v>
-      </c>
-      <c r="G292" t="s">
-        <v>1986</v>
       </c>
       <c r="H292" t="s">
         <v>1516</v>
@@ -28749,16 +28749,16 @@
         <v>1402</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F293" s="7">
         <v>2</v>
       </c>
       <c r="G293" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I293" t="s">
         <v>1516</v>
@@ -28782,7 +28782,7 @@
         <v>1516</v>
       </c>
       <c r="P293" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="Q293" t="s">
         <v>1516</v>
@@ -28811,13 +28811,13 @@
         <v>1411</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F294" s="7">
         <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>1412</v>
@@ -28873,13 +28873,13 @@
         <v>1419</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="F295" s="7">
         <v>1</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="H295" t="s">
         <v>1516</v>
@@ -28891,10 +28891,10 @@
         <v>1420</v>
       </c>
       <c r="K295" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L295" t="s">
         <v>2345</v>
-      </c>
-      <c r="L295" t="s">
-        <v>2346</v>
       </c>
       <c r="M295" t="s">
         <v>1516</v>
@@ -28935,7 +28935,7 @@
         <v>1422</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F296" s="7">
         <v>1</v>
@@ -28997,13 +28997,13 @@
         <v>1425</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F297" s="7">
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>1424</v>
@@ -29059,13 +29059,13 @@
         <v>1438</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F298" s="7">
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>1439</v>
@@ -29121,7 +29121,7 @@
         <v>1446</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F299" s="7">
         <v>1</v>
@@ -29183,13 +29183,13 @@
         <v>1457</v>
       </c>
       <c r="E300" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F300" s="7">
+        <v>1</v>
+      </c>
+      <c r="G300" s="35" t="s">
         <v>2022</v>
-      </c>
-      <c r="F300" s="7">
-        <v>1</v>
-      </c>
-      <c r="G300" s="35" t="s">
-        <v>2023</v>
       </c>
       <c r="H300" t="s">
         <v>1516</v>
@@ -29245,13 +29245,13 @@
         <v>1459</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F301" s="7">
         <v>1</v>
       </c>
       <c r="G301" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>1458</v>
@@ -29307,7 +29307,7 @@
         <v>1461</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F302" s="7">
         <v>1</v>
@@ -29322,10 +29322,10 @@
         <v>1516</v>
       </c>
       <c r="J302" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="K302" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="L302" t="s">
         <v>1516</v>
@@ -29369,7 +29369,7 @@
         <v>1462</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F303" s="7">
         <v>1</v>
@@ -29384,10 +29384,10 @@
         <v>1516</v>
       </c>
       <c r="J303" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="K303" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="L303" t="s">
         <v>1516</v>
@@ -29431,7 +29431,7 @@
         <v>1463</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F304" s="7">
         <v>1</v>
@@ -29449,7 +29449,7 @@
         <v>1397</v>
       </c>
       <c r="K304" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="L304" t="s">
         <v>1516</v>
@@ -29493,13 +29493,13 @@
         <v>1466</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F305" s="7">
         <v>1</v>
       </c>
       <c r="G305" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>1467</v>
@@ -29514,7 +29514,7 @@
         <v>1516</v>
       </c>
       <c r="L305" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="M305" t="s">
         <v>1516</v>
@@ -29552,10 +29552,10 @@
         <v>305</v>
       </c>
       <c r="D306" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F306" s="7">
         <v>1</v>
@@ -29614,16 +29614,16 @@
         <v>306</v>
       </c>
       <c r="D307" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="E307" s="1" t="s">
+      <c r="F307" s="7">
+        <v>1</v>
+      </c>
+      <c r="G307" t="s">
         <v>2061</v>
-      </c>
-      <c r="F307" s="7">
-        <v>1</v>
-      </c>
-      <c r="G307" t="s">
-        <v>2062</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>1485</v>
@@ -29679,13 +29679,13 @@
         <v>1494</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F308" s="7">
         <v>1</v>
       </c>
       <c r="G308" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>1493</v>
@@ -29741,13 +29741,13 @@
         <v>1505</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F309" s="7">
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>1502</v>
@@ -29756,7 +29756,7 @@
         <v>1516</v>
       </c>
       <c r="J309" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K309" t="s">
         <v>1516</v>
@@ -29803,13 +29803,13 @@
         <v>1507</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F310" s="7">
         <v>1</v>
       </c>
       <c r="G310" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>1509</v>
@@ -29862,16 +29862,16 @@
         <v>310</v>
       </c>
       <c r="D311" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E311" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F311" s="7">
+        <v>1</v>
+      </c>
+      <c r="G311" t="s">
         <v>2071</v>
-      </c>
-      <c r="F311" s="7">
-        <v>1</v>
-      </c>
-      <c r="G311" t="s">
-        <v>2072</v>
       </c>
       <c r="H311" t="s">
         <v>1516</v>
@@ -29927,13 +29927,13 @@
         <v>1518</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F312" s="7">
         <v>1</v>
       </c>
       <c r="G312" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="H312" t="s">
         <v>1616</v>
@@ -29989,13 +29989,13 @@
         <v>1524</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F313" s="7">
         <v>1</v>
       </c>
       <c r="G313" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>1525</v>
@@ -30051,7 +30051,7 @@
         <v>1533</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="F314" s="7">
         <v>1</v>
@@ -30110,16 +30110,16 @@
         <v>314</v>
       </c>
       <c r="D315" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F315" s="7">
+        <v>1</v>
+      </c>
+      <c r="G315" t="s">
         <v>2112</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="F315" s="7">
-        <v>1</v>
-      </c>
-      <c r="G315" t="s">
-        <v>2113</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>1536</v>
@@ -30175,13 +30175,13 @@
         <v>1635</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="F316" s="7">
         <v>1</v>
       </c>
       <c r="G316" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>1554</v>
@@ -30237,13 +30237,13 @@
         <v>1557</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="F317" s="7">
         <v>1</v>
       </c>
       <c r="G317" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H317" t="s">
         <v>1616</v>
@@ -30299,7 +30299,7 @@
         <v>1565</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="F318" s="7">
         <v>1</v>
@@ -30358,16 +30358,16 @@
         <v>318</v>
       </c>
       <c r="D319" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="F319" s="7">
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>1568</v>
@@ -30423,7 +30423,7 @@
         <v>1571</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F320" s="7">
         <v>1</v>
@@ -30485,13 +30485,13 @@
         <v>1591</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F321" s="7">
         <v>2</v>
       </c>
       <c r="G321" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="H321" t="s">
         <v>1616</v>
@@ -30547,13 +30547,13 @@
         <v>1597</v>
       </c>
       <c r="E322" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F322" s="7">
+        <v>1</v>
+      </c>
+      <c r="G322" t="s">
         <v>2140</v>
-      </c>
-      <c r="F322" s="7">
-        <v>1</v>
-      </c>
-      <c r="G322" t="s">
-        <v>2141</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>1594</v>
@@ -30609,7 +30609,7 @@
         <v>1599</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F323" s="7">
         <v>1</v>
@@ -30733,13 +30733,13 @@
         <v>1608</v>
       </c>
       <c r="E325" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F325" s="7">
+        <v>1</v>
+      </c>
+      <c r="G325" t="s">
         <v>2143</v>
-      </c>
-      <c r="F325" s="7">
-        <v>1</v>
-      </c>
-      <c r="G325" t="s">
-        <v>2144</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>1609</v>
@@ -30786,7 +30786,7 @@
         <v>1746</v>
       </c>
       <c r="B326" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C326" s="7">
         <v>325</v>
@@ -30795,13 +30795,13 @@
         <v>1615</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F326" s="7">
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>1617</v>
@@ -30857,7 +30857,7 @@
         <v>1622</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="F327" s="7">
         <v>1</v>
@@ -30919,13 +30919,13 @@
         <v>1627</v>
       </c>
       <c r="E328" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F328" s="7">
+        <v>1</v>
+      </c>
+      <c r="G328" t="s">
         <v>2148</v>
-      </c>
-      <c r="F328" s="7">
-        <v>1</v>
-      </c>
-      <c r="G328" t="s">
-        <v>2149</v>
       </c>
       <c r="H328" t="s">
         <v>1755</v>
@@ -30981,13 +30981,13 @@
         <v>1632</v>
       </c>
       <c r="E329" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F329" s="7">
+        <v>1</v>
+      </c>
+      <c r="G329" t="s">
         <v>2150</v>
-      </c>
-      <c r="F329" s="7">
-        <v>1</v>
-      </c>
-      <c r="G329" t="s">
-        <v>2151</v>
       </c>
       <c r="H329" t="s">
         <v>1755</v>
@@ -31102,16 +31102,16 @@
         <v>330</v>
       </c>
       <c r="D331" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="F331" s="7">
         <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>1639</v>
@@ -31167,13 +31167,13 @@
         <v>1641</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F332" s="7">
         <v>1</v>
       </c>
       <c r="G332" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>1644</v>
@@ -31229,13 +31229,13 @@
         <v>1647</v>
       </c>
       <c r="E333" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F333" s="7">
+        <v>1</v>
+      </c>
+      <c r="G333" t="s">
         <v>2157</v>
-      </c>
-      <c r="F333" s="7">
-        <v>1</v>
-      </c>
-      <c r="G333" t="s">
-        <v>2158</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>1648</v>
@@ -31291,16 +31291,16 @@
         <v>1650</v>
       </c>
       <c r="E334" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F334" s="7">
+        <v>1</v>
+      </c>
+      <c r="G334" t="s">
         <v>2159</v>
       </c>
-      <c r="F334" s="7">
-        <v>1</v>
-      </c>
-      <c r="G334" t="s">
-        <v>2160</v>
-      </c>
       <c r="H334" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="I334" t="s">
         <v>1755</v>
@@ -31309,7 +31309,7 @@
         <v>1628</v>
       </c>
       <c r="K334" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="L334" t="s">
         <v>1755</v>
@@ -31353,13 +31353,13 @@
         <v>1652</v>
       </c>
       <c r="E335" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F335" s="7">
+        <v>1</v>
+      </c>
+      <c r="G335" t="s">
         <v>2161</v>
-      </c>
-      <c r="F335" s="7">
-        <v>1</v>
-      </c>
-      <c r="G335" t="s">
-        <v>2162</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>1653</v>
@@ -31415,13 +31415,13 @@
         <v>1656</v>
       </c>
       <c r="E336" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F336" s="7">
+        <v>1</v>
+      </c>
+      <c r="G336" t="s">
         <v>2163</v>
-      </c>
-      <c r="F336" s="7">
-        <v>1</v>
-      </c>
-      <c r="G336" t="s">
-        <v>2164</v>
       </c>
       <c r="H336" t="s">
         <v>1755</v>
@@ -31477,7 +31477,7 @@
         <v>1658</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="F337" s="7">
         <v>1</v>
@@ -31539,13 +31539,13 @@
         <v>1662</v>
       </c>
       <c r="E338" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F338" s="7">
+        <v>1</v>
+      </c>
+      <c r="G338" t="s">
         <v>2167</v>
-      </c>
-      <c r="F338" s="7">
-        <v>1</v>
-      </c>
-      <c r="G338" t="s">
-        <v>2168</v>
       </c>
       <c r="H338" t="s">
         <v>1755</v>
@@ -31601,13 +31601,13 @@
         <v>1666</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="F339" s="7">
         <v>1</v>
       </c>
       <c r="G339" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="H339" t="s">
         <v>1755</v>
@@ -31663,7 +31663,7 @@
         <v>1672</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F340" s="7">
         <v>1</v>
@@ -31725,13 +31725,13 @@
         <v>1679</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="F341" s="7">
         <v>1</v>
       </c>
       <c r="G341" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>1680</v>
@@ -31770,7 +31770,7 @@
         <v>1755</v>
       </c>
       <c r="T341" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="342" spans="1:20" ht="15.75">
@@ -31787,13 +31787,13 @@
         <v>1689</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F342" s="7">
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>1690</v>
@@ -31849,13 +31849,13 @@
         <v>1695</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F343" s="7">
         <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>1694</v>
@@ -31911,13 +31911,13 @@
         <v>1697</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F344" s="7">
         <v>1</v>
       </c>
       <c r="G344" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>1698</v>
@@ -31973,13 +31973,13 @@
         <v>1704</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F345" s="7">
         <v>1</v>
       </c>
       <c r="G345" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="H345" t="s">
         <v>1755</v>
@@ -32041,7 +32041,7 @@
         <v>1</v>
       </c>
       <c r="G346" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="H346" t="s">
         <v>1755</v>
@@ -32050,7 +32050,7 @@
         <v>1755</v>
       </c>
       <c r="J346" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="K346" t="s">
         <v>1755</v>
@@ -32097,13 +32097,13 @@
         <v>1712</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F347" s="7">
         <v>1</v>
       </c>
       <c r="G347" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="H347" t="s">
         <v>1755</v>
@@ -32156,16 +32156,16 @@
         <v>347</v>
       </c>
       <c r="D348" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="F348" s="7">
         <v>1</v>
       </c>
       <c r="G348" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="H348" t="s">
         <v>1755</v>
@@ -32221,13 +32221,13 @@
         <v>1722</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="F349" s="7">
         <v>1</v>
       </c>
       <c r="G349" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="H349" t="s">
         <v>1755</v>
@@ -32283,13 +32283,13 @@
         <v>1731</v>
       </c>
       <c r="E350" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F350" s="7">
+        <v>1</v>
+      </c>
+      <c r="G350" t="s">
         <v>2213</v>
-      </c>
-      <c r="F350" s="7">
-        <v>1</v>
-      </c>
-      <c r="G350" t="s">
-        <v>2214</v>
       </c>
       <c r="H350" t="s">
         <v>1755</v>
@@ -32345,7 +32345,7 @@
         <v>1749</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="F351" s="7">
         <v>1</v>
@@ -32407,13 +32407,13 @@
         <v>1753</v>
       </c>
       <c r="E352" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F352" s="7">
+        <v>1</v>
+      </c>
+      <c r="G352" t="s">
         <v>2216</v>
-      </c>
-      <c r="F352" s="7">
-        <v>1</v>
-      </c>
-      <c r="G352" t="s">
-        <v>2217</v>
       </c>
       <c r="H352" t="s">
         <v>1755</v>
@@ -32531,7 +32531,7 @@
         <v>1781</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="F354" s="7">
         <v>1</v>
@@ -32593,13 +32593,13 @@
         <v>1792</v>
       </c>
       <c r="E355" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F355" s="7">
+        <v>1</v>
+      </c>
+      <c r="G355" t="s">
         <v>2219</v>
-      </c>
-      <c r="F355" s="7">
-        <v>1</v>
-      </c>
-      <c r="G355" t="s">
-        <v>2220</v>
       </c>
       <c r="H355" t="s">
         <v>1864</v>
@@ -32655,7 +32655,7 @@
         <v>1806</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F356" s="7">
         <v>1</v>
@@ -32717,7 +32717,7 @@
         <v>1807</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="F357" s="7">
         <v>1</v>
@@ -32779,7 +32779,7 @@
         <v>1815</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="F358" s="7">
         <v>2</v>
@@ -32841,13 +32841,13 @@
         <v>1819</v>
       </c>
       <c r="E359" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F359" s="7">
+        <v>1</v>
+      </c>
+      <c r="G359" t="s">
         <v>2224</v>
-      </c>
-      <c r="F359" s="7">
-        <v>1</v>
-      </c>
-      <c r="G359" t="s">
-        <v>2225</v>
       </c>
       <c r="H359" t="s">
         <v>1864</v>
@@ -32903,13 +32903,13 @@
         <v>1821</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="F360" s="7">
         <v>1</v>
       </c>
       <c r="G360" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>1823</v>
@@ -32965,7 +32965,7 @@
         <v>1826</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="F361" s="7">
         <v>2</v>
@@ -33027,13 +33027,13 @@
         <v>1846</v>
       </c>
       <c r="E362" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F362" s="7">
+        <v>1</v>
+      </c>
+      <c r="G362" t="s">
         <v>2234</v>
-      </c>
-      <c r="F362" s="7">
-        <v>1</v>
-      </c>
-      <c r="G362" t="s">
-        <v>2235</v>
       </c>
       <c r="H362" t="s">
         <v>1864</v>
@@ -33089,13 +33089,13 @@
         <v>1848</v>
       </c>
       <c r="E363" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F363" s="7">
+        <v>1</v>
+      </c>
+      <c r="G363" t="s">
         <v>2236</v>
-      </c>
-      <c r="F363" s="7">
-        <v>1</v>
-      </c>
-      <c r="G363" t="s">
-        <v>2237</v>
       </c>
       <c r="H363" t="s">
         <v>1864</v>
@@ -33151,13 +33151,13 @@
         <v>1852</v>
       </c>
       <c r="E364" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F364" s="7">
+        <v>1</v>
+      </c>
+      <c r="G364" t="s">
         <v>2238</v>
-      </c>
-      <c r="F364" s="7">
-        <v>1</v>
-      </c>
-      <c r="G364" t="s">
-        <v>2239</v>
       </c>
       <c r="H364" s="1" t="s">
         <v>1853</v>
@@ -33213,13 +33213,13 @@
         <v>1854</v>
       </c>
       <c r="E365" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F365" s="7">
+        <v>1</v>
+      </c>
+      <c r="G365" t="s">
         <v>2240</v>
-      </c>
-      <c r="F365" s="7">
-        <v>1</v>
-      </c>
-      <c r="G365" t="s">
-        <v>2241</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>1855</v>
@@ -33275,13 +33275,13 @@
         <v>1857</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="F366" s="7">
         <v>1</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="H366" t="s">
         <v>1864</v>
@@ -33337,7 +33337,7 @@
         <v>1860</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F367" s="7">
         <v>1</v>
@@ -33387,887 +33387,887 @@
     </row>
     <row r="368" spans="1:20">
       <c r="A368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C368" s="7">
         <v>367</v>
       </c>
       <c r="D368" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="F368" s="7">
         <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="I368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J368" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="K368" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="L368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R368" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="S368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T368" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B369" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C369" s="7">
         <v>368</v>
       </c>
       <c r="D369" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F369" s="7">
+        <v>1</v>
+      </c>
+      <c r="G369" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H369" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="E369" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F369" s="7">
-        <v>1</v>
-      </c>
-      <c r="G369" t="s">
-        <v>2271</v>
-      </c>
-      <c r="H369" s="1" t="s">
+      <c r="I369" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="I369" s="1" t="s">
-        <v>1887</v>
-      </c>
       <c r="J369" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="K369" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="L369" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M369" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N369" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O369" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="P369" t="s">
+        <v>1888</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R369" s="1" t="s">
         <v>1889</v>
       </c>
-      <c r="Q369" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R369" s="1" t="s">
-        <v>1890</v>
-      </c>
       <c r="S369" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T369" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C370" s="7">
         <v>369</v>
       </c>
       <c r="D370" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F370" s="7">
+        <v>1</v>
+      </c>
+      <c r="G370" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H370" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I370" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J370" t="s">
         <v>1898</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="F370" s="7">
-        <v>1</v>
-      </c>
-      <c r="G370" t="s">
-        <v>2166</v>
-      </c>
-      <c r="H370" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I370" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J370" t="s">
-        <v>1899</v>
-      </c>
       <c r="K370" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="L370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T370" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C371" s="7">
         <v>370</v>
       </c>
       <c r="D371" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E371" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="E371" s="1" t="s">
-        <v>1902</v>
-      </c>
       <c r="F371" s="7">
         <v>1</v>
       </c>
       <c r="G371" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="I371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J371" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="K371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T371" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C372" s="7">
         <v>371</v>
       </c>
       <c r="D372" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F372" s="7">
+        <v>1</v>
+      </c>
+      <c r="G372" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H372" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="E372" s="1" t="s">
-        <v>2251</v>
-      </c>
-      <c r="F372" s="7">
-        <v>1</v>
-      </c>
-      <c r="G372" t="s">
-        <v>2252</v>
-      </c>
-      <c r="H372" s="1" t="s">
-        <v>1906</v>
-      </c>
       <c r="I372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J372" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="K372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T372" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B373" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C373" s="7">
         <v>372</v>
       </c>
       <c r="D373" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F373" s="7">
+        <v>1</v>
+      </c>
+      <c r="G373" t="s">
+        <v>2252</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J373" t="s">
         <v>1913</v>
       </c>
-      <c r="E373" s="1" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F373" s="7">
-        <v>1</v>
-      </c>
-      <c r="G373" t="s">
-        <v>2253</v>
-      </c>
-      <c r="H373" s="1" t="s">
+      <c r="K373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R373" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="I373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J373" t="s">
-        <v>1914</v>
-      </c>
-      <c r="K373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q373" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R373" s="1" t="s">
-        <v>1912</v>
-      </c>
       <c r="S373" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T373" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="374" spans="1:20">
       <c r="A374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C374" s="7">
         <v>373</v>
       </c>
       <c r="D374" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F374" s="7">
+        <v>1</v>
+      </c>
+      <c r="G374" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H374" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I374" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J374" t="s">
         <v>1917</v>
       </c>
-      <c r="E374" s="1" t="s">
-        <v>1916</v>
-      </c>
-      <c r="F374" s="7">
-        <v>1</v>
-      </c>
-      <c r="G374" t="s">
-        <v>2254</v>
-      </c>
-      <c r="H374" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I374" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J374" t="s">
-        <v>1918</v>
-      </c>
       <c r="K374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T374" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B375" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C375" s="7">
         <v>374</v>
       </c>
       <c r="D375" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E375" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="E375" s="1" t="s">
+      <c r="F375" s="7">
+        <v>1</v>
+      </c>
+      <c r="G375" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J375" t="s">
         <v>1924</v>
       </c>
-      <c r="F375" s="7">
-        <v>1</v>
-      </c>
-      <c r="G375" t="s">
-        <v>2271</v>
-      </c>
-      <c r="H375" s="1" t="s">
+      <c r="K375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="S375" t="s">
+        <v>2165</v>
+      </c>
+      <c r="T375" t="s">
         <v>1926</v>
-      </c>
-      <c r="I375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J375" t="s">
-        <v>1925</v>
-      </c>
-      <c r="K375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="S375" t="s">
-        <v>2166</v>
-      </c>
-      <c r="T375" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B376" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C376" s="7">
         <v>375</v>
       </c>
       <c r="D376" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F376" s="7">
+        <v>1</v>
+      </c>
+      <c r="G376" t="s">
+        <v>2259</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J376" t="s">
         <v>1935</v>
       </c>
-      <c r="E376" s="1" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F376" s="7">
-        <v>1</v>
-      </c>
-      <c r="G376" t="s">
-        <v>2260</v>
-      </c>
-      <c r="H376" s="1" t="s">
+      <c r="K376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R376" t="s">
+        <v>2165</v>
+      </c>
+      <c r="S376" t="s">
         <v>1933</v>
       </c>
-      <c r="I376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J376" t="s">
-        <v>1936</v>
-      </c>
-      <c r="K376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R376" t="s">
-        <v>2166</v>
-      </c>
-      <c r="S376" t="s">
-        <v>1934</v>
-      </c>
       <c r="T376" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="377" spans="1:20">
       <c r="A377" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B377" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C377" s="7">
         <v>376</v>
       </c>
       <c r="D377" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F377" s="7">
+        <v>1</v>
+      </c>
+      <c r="G377" t="s">
+        <v>2262</v>
+      </c>
+      <c r="H377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J377" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R377" t="s">
+        <v>2165</v>
+      </c>
+      <c r="S377" t="s">
         <v>1938</v>
       </c>
-      <c r="E377" s="1" t="s">
-        <v>1937</v>
-      </c>
-      <c r="F377" s="7">
-        <v>1</v>
-      </c>
-      <c r="G377" t="s">
-        <v>2263</v>
-      </c>
-      <c r="H377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J377" t="s">
-        <v>1936</v>
-      </c>
-      <c r="K377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R377" t="s">
-        <v>2166</v>
-      </c>
-      <c r="S377" t="s">
-        <v>1939</v>
-      </c>
       <c r="T377" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="378" spans="1:20" ht="14.25">
       <c r="A378" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B378" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C378" s="7">
         <v>377</v>
       </c>
       <c r="D378" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F378" s="7">
+        <v>1</v>
+      </c>
+      <c r="G378" t="s">
+        <v>2266</v>
+      </c>
+      <c r="H378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J378" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K378" s="33" t="s">
         <v>1940</v>
       </c>
-      <c r="E378" s="1" t="s">
-        <v>2264</v>
-      </c>
-      <c r="F378" s="7">
-        <v>1</v>
-      </c>
-      <c r="G378" t="s">
-        <v>2267</v>
-      </c>
-      <c r="H378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J378" t="s">
+      <c r="L378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R378" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="K378" s="33" t="s">
-        <v>1941</v>
-      </c>
-      <c r="L378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q378" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R378" s="1" t="s">
+      <c r="S378" t="s">
         <v>1943</v>
       </c>
-      <c r="S378" t="s">
-        <v>1944</v>
-      </c>
       <c r="T378" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="379" spans="1:20">
       <c r="A379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C379" s="7">
         <v>378</v>
       </c>
       <c r="D379" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F379" s="7">
+        <v>1</v>
+      </c>
+      <c r="G379" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H379" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I379" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J379" t="s">
         <v>1946</v>
       </c>
-      <c r="E379" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="F379" s="7">
-        <v>1</v>
-      </c>
-      <c r="G379" t="s">
-        <v>2268</v>
-      </c>
-      <c r="H379" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I379" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J379" t="s">
+      <c r="K379" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L379" t="s">
         <v>1947</v>
       </c>
-      <c r="K379" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L379" t="s">
-        <v>1948</v>
-      </c>
       <c r="M379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T379" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B380" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C380" s="7">
         <v>379</v>
       </c>
       <c r="D380" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F380" s="7">
+        <v>1</v>
+      </c>
+      <c r="G380" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H380" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="E380" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F380" s="7">
-        <v>1</v>
-      </c>
-      <c r="G380" t="s">
-        <v>2166</v>
-      </c>
-      <c r="H380" s="1" t="s">
+      <c r="I380" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J380" t="s">
+        <v>1954</v>
+      </c>
+      <c r="K380" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L380" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M380" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N380" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O380" t="s">
         <v>1953</v>
       </c>
-      <c r="I380" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J380" t="s">
-        <v>1955</v>
-      </c>
-      <c r="K380" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L380" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M380" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N380" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O380" t="s">
-        <v>1954</v>
-      </c>
       <c r="P380" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q380" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R380" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S380" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T380" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B381" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C381" s="7">
         <v>380</v>
       </c>
       <c r="D381" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F381" s="7">
+        <v>1</v>
+      </c>
+      <c r="G381" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1961</v>
+      </c>
+      <c r="K381" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L381" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M381" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N381" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O381" t="s">
+        <v>1960</v>
+      </c>
+      <c r="P381" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R381" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="E381" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="F381" s="7">
-        <v>1</v>
-      </c>
-      <c r="G381" t="s">
-        <v>2271</v>
-      </c>
-      <c r="H381" s="1" t="s">
-        <v>1957</v>
-      </c>
-      <c r="I381" s="1" t="s">
-        <v>1960</v>
-      </c>
-      <c r="J381" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K381" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L381" t="s">
-        <v>1963</v>
-      </c>
-      <c r="M381" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N381" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O381" t="s">
-        <v>1961</v>
-      </c>
-      <c r="P381" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q381" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R381" s="1" t="s">
-        <v>1959</v>
-      </c>
       <c r="S381" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T381" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="382" spans="1:20">
       <c r="A382" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B382" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C382" s="7">
         <v>381</v>
       </c>
       <c r="D382" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F382" s="7">
         <v>1</v>
@@ -34276,1486 +34276,1486 @@
         <v>287</v>
       </c>
       <c r="H382" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="I382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1969</v>
+      </c>
+      <c r="K382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R382" t="s">
         <v>1968</v>
       </c>
-      <c r="I382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J382" t="s">
-        <v>1970</v>
-      </c>
-      <c r="K382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q382" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R382" t="s">
-        <v>1969</v>
-      </c>
       <c r="S382" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T382" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B383" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C383" s="7">
         <v>382</v>
       </c>
       <c r="D383" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F383" s="7">
+        <v>1</v>
+      </c>
+      <c r="G383" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H383" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="E383" s="1" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F383" s="7">
-        <v>1</v>
-      </c>
-      <c r="G383" t="s">
-        <v>2269</v>
-      </c>
-      <c r="H383" s="1" t="s">
+      <c r="I383" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J383" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K383" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L383" t="s">
         <v>1973</v>
       </c>
-      <c r="I383" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J383" t="s">
-        <v>1942</v>
-      </c>
-      <c r="K383" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L383" t="s">
+      <c r="M383" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N383" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O383" t="s">
         <v>1974</v>
       </c>
-      <c r="M383" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N383" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O383" t="s">
+      <c r="P383" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R383" t="s">
         <v>1975</v>
       </c>
-      <c r="P383" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q383" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R383" t="s">
-        <v>1976</v>
-      </c>
       <c r="S383" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T383" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="384" spans="1:20" ht="14.25">
       <c r="A384" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B384" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C384" s="7">
         <v>383</v>
       </c>
       <c r="D384" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F384" s="7">
+        <v>1</v>
+      </c>
+      <c r="G384" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J384" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K384" s="22" t="s">
         <v>1977</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>2270</v>
-      </c>
-      <c r="F384" s="7">
-        <v>1</v>
-      </c>
-      <c r="G384" t="s">
-        <v>2284</v>
-      </c>
-      <c r="H384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J384" t="s">
-        <v>1942</v>
-      </c>
-      <c r="K384" s="22" t="s">
+      <c r="L384" t="s">
         <v>1978</v>
       </c>
-      <c r="L384" t="s">
+      <c r="M384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R384" t="s">
+        <v>2165</v>
+      </c>
+      <c r="S384" s="22" t="s">
         <v>1979</v>
       </c>
-      <c r="M384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R384" t="s">
-        <v>2166</v>
-      </c>
-      <c r="S384" s="22" t="s">
-        <v>1980</v>
-      </c>
       <c r="T384" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C385" s="7">
         <v>384</v>
       </c>
       <c r="D385" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F385" s="7">
+        <v>1</v>
+      </c>
+      <c r="G385" t="s">
+        <v>2286</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I385" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J385" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K385" t="s">
         <v>1995</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="F385" s="7">
-        <v>1</v>
-      </c>
-      <c r="G385" t="s">
-        <v>2287</v>
-      </c>
-      <c r="H385" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I385" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J385" t="s">
-        <v>1942</v>
-      </c>
-      <c r="K385" t="s">
+      <c r="L385" t="s">
         <v>1996</v>
       </c>
-      <c r="L385" t="s">
-        <v>1997</v>
-      </c>
       <c r="M385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T385" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="386" spans="1:20" ht="16.5">
       <c r="A386" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B386" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C386" s="7">
         <v>385</v>
       </c>
       <c r="D386" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F386" s="7">
+        <v>1</v>
+      </c>
+      <c r="G386" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H386" s="1" t="s">
         <v>2002</v>
       </c>
-      <c r="E386" s="1" t="s">
-        <v>2001</v>
-      </c>
-      <c r="F386" s="7">
-        <v>1</v>
-      </c>
-      <c r="G386" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H386" s="1" t="s">
+      <c r="I386" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J386" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K386" s="34" t="s">
         <v>2003</v>
       </c>
-      <c r="I386" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J386" t="s">
-        <v>2008</v>
-      </c>
-      <c r="K386" s="34" t="s">
+      <c r="L386" t="s">
+        <v>1996</v>
+      </c>
+      <c r="M386" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N386" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O386" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="P386" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R386" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="L386" t="s">
-        <v>1997</v>
-      </c>
-      <c r="M386" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N386" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O386" s="1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="P386" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q386" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R386" s="1" t="s">
-        <v>2005</v>
-      </c>
       <c r="S386" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T386" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B387" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C387" s="7">
         <v>386</v>
       </c>
       <c r="D387" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F387" s="7">
+        <v>1</v>
+      </c>
+      <c r="G387" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J387" t="s">
         <v>2011</v>
       </c>
-      <c r="E387" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="F387" s="7">
-        <v>1</v>
-      </c>
-      <c r="G387" t="s">
-        <v>2288</v>
-      </c>
-      <c r="H387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J387" t="s">
+      <c r="K387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R387" s="1" t="s">
         <v>2012</v>
       </c>
-      <c r="K387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q387" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R387" s="1" t="s">
-        <v>2013</v>
-      </c>
       <c r="S387" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T387" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B388" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C388" s="7">
         <v>387</v>
       </c>
       <c r="D388" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F388" s="7">
+        <v>1</v>
+      </c>
+      <c r="G388" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I388" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J388" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K388" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L388" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M388" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N388" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O388" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="P388" t="s">
         <v>2015</v>
       </c>
-      <c r="E388" s="1" t="s">
-        <v>2289</v>
-      </c>
-      <c r="F388" s="7">
-        <v>1</v>
-      </c>
-      <c r="G388" t="s">
-        <v>2290</v>
-      </c>
-      <c r="H388" s="1" t="s">
-        <v>2014</v>
-      </c>
-      <c r="I388" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J388" t="s">
-        <v>2019</v>
-      </c>
-      <c r="K388" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L388" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M388" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N388" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O388" s="1" t="s">
+      <c r="Q388" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R388" s="1" t="s">
         <v>2017</v>
       </c>
-      <c r="P388" t="s">
-        <v>2016</v>
-      </c>
-      <c r="Q388" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R388" s="1" t="s">
-        <v>2018</v>
-      </c>
       <c r="S388" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T388" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B389" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C389" s="7">
         <v>388</v>
       </c>
       <c r="D389" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F389" s="7">
+        <v>1</v>
+      </c>
+      <c r="G389" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H389" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I389" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J389" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K389" t="s">
+        <v>2029</v>
+      </c>
+      <c r="L389" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M389" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N389" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O389" t="s">
         <v>2026</v>
       </c>
-      <c r="E389" s="1" t="s">
-        <v>2025</v>
-      </c>
-      <c r="F389" s="7">
-        <v>1</v>
-      </c>
-      <c r="G389" t="s">
-        <v>2291</v>
-      </c>
-      <c r="H389" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I389" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J389" t="s">
-        <v>2028</v>
-      </c>
-      <c r="K389" t="s">
-        <v>2030</v>
-      </c>
-      <c r="L389" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M389" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N389" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O389" t="s">
-        <v>2027</v>
-      </c>
       <c r="P389" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q389" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R389" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S389" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T389" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C390" s="7">
         <v>389</v>
       </c>
       <c r="D390" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F390" s="7">
+        <v>1</v>
+      </c>
+      <c r="G390" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H390" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I390" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J390" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K390" t="s">
         <v>2035</v>
       </c>
-      <c r="E390" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="F390" s="7">
-        <v>1</v>
-      </c>
-      <c r="G390" t="s">
-        <v>2299</v>
-      </c>
-      <c r="H390" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I390" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J390" t="s">
-        <v>2012</v>
-      </c>
-      <c r="K390" t="s">
-        <v>2036</v>
-      </c>
       <c r="L390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T390" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C391" s="7">
         <v>390</v>
       </c>
       <c r="D391" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F391" s="7">
+        <v>1</v>
+      </c>
+      <c r="G391" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H391" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I391" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J391" t="s">
         <v>2037</v>
       </c>
-      <c r="E391" s="1" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F391" s="7">
-        <v>1</v>
-      </c>
-      <c r="G391" t="s">
-        <v>2311</v>
-      </c>
-      <c r="H391" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I391" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J391" t="s">
+      <c r="K391" t="s">
         <v>2038</v>
       </c>
-      <c r="K391" t="s">
-        <v>2039</v>
-      </c>
       <c r="L391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T391" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="392" spans="1:20">
       <c r="A392" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B392" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C392" s="7">
         <v>391</v>
       </c>
       <c r="D392" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="F392" s="7">
+        <v>1</v>
+      </c>
+      <c r="G392" t="s">
+        <v>2319</v>
+      </c>
+      <c r="H392" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="E392" s="1" t="s">
+      <c r="I392" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J392" t="s">
+        <v>2042</v>
+      </c>
+      <c r="K392" t="s">
+        <v>2038</v>
+      </c>
+      <c r="L392" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M392" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N392" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O392" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="F392" s="7">
-        <v>1</v>
-      </c>
-      <c r="G392" t="s">
-        <v>2320</v>
-      </c>
-      <c r="H392" s="1" t="s">
-        <v>2041</v>
-      </c>
-      <c r="I392" s="1" t="s">
-        <v>2042</v>
-      </c>
-      <c r="J392" t="s">
-        <v>2043</v>
-      </c>
-      <c r="K392" t="s">
-        <v>2039</v>
-      </c>
-      <c r="L392" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M392" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N392" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O392" s="1" t="s">
-        <v>2313</v>
-      </c>
       <c r="P392" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q392" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R392" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S392" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T392" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B393" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C393" s="7">
         <v>392</v>
       </c>
       <c r="D393" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F393" s="7">
+        <v>1</v>
+      </c>
+      <c r="G393" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H393" s="1" t="s">
         <v>2049</v>
       </c>
-      <c r="E393" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="F393" s="7">
-        <v>1</v>
-      </c>
-      <c r="G393" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H393" s="1" t="s">
+      <c r="I393" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J393" t="s">
+        <v>2320</v>
+      </c>
+      <c r="K393" t="s">
         <v>2050</v>
       </c>
-      <c r="I393" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J393" t="s">
-        <v>2321</v>
-      </c>
-      <c r="K393" t="s">
+      <c r="L393" t="s">
         <v>2051</v>
       </c>
-      <c r="L393" t="s">
+      <c r="M393" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N393" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O393" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P393" t="s">
         <v>2052</v>
       </c>
-      <c r="M393" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N393" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O393" s="1" t="s">
+      <c r="Q393" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R393" t="s">
         <v>2054</v>
       </c>
-      <c r="P393" t="s">
-        <v>2053</v>
-      </c>
-      <c r="Q393" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R393" t="s">
+      <c r="S393" t="s">
+        <v>2165</v>
+      </c>
+      <c r="T393" t="s">
         <v>2055</v>
-      </c>
-      <c r="S393" t="s">
-        <v>2166</v>
-      </c>
-      <c r="T393" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C394" s="7">
         <v>393</v>
       </c>
       <c r="D394" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F394" s="7">
+        <v>1</v>
+      </c>
+      <c r="G394" t="s">
+        <v>2328</v>
+      </c>
+      <c r="H394" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I394" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J394" t="s">
         <v>2065</v>
       </c>
-      <c r="E394" s="1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="F394" s="7">
-        <v>1</v>
-      </c>
-      <c r="G394" t="s">
-        <v>2329</v>
-      </c>
-      <c r="H394" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I394" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J394" t="s">
-        <v>2066</v>
-      </c>
       <c r="K394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T394" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="395" spans="1:20">
       <c r="A395" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C395" s="7">
         <v>394</v>
       </c>
       <c r="D395" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F395" s="7">
         <v>3</v>
       </c>
       <c r="G395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="I395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J395" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="K395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L395" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O395" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="P395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T395" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="396" spans="1:20">
       <c r="A396" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B396" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C396" s="7">
         <v>395</v>
       </c>
       <c r="D396" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F396" s="7">
+        <v>1</v>
+      </c>
+      <c r="G396" t="s">
+        <v>2329</v>
+      </c>
+      <c r="H396" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="E396" s="1" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F396" s="7">
-        <v>1</v>
-      </c>
-      <c r="G396" t="s">
-        <v>2330</v>
-      </c>
-      <c r="H396" s="1" t="s">
+      <c r="I396" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J396" t="s">
+        <v>2087</v>
+      </c>
+      <c r="K396" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L396" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M396" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N396" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O396" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P396" t="s">
         <v>2085</v>
       </c>
-      <c r="I396" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J396" t="s">
-        <v>2088</v>
-      </c>
-      <c r="K396" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L396" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M396" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N396" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O396" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P396" t="s">
+      <c r="Q396" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R396" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="Q396" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R396" s="1" t="s">
-        <v>2087</v>
-      </c>
       <c r="S396" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T396" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="397" spans="1:20">
       <c r="A397" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B397" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C397" s="7">
         <v>396</v>
       </c>
       <c r="D397" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F397" s="7">
+        <v>1</v>
+      </c>
+      <c r="G397" t="s">
+        <v>2331</v>
+      </c>
+      <c r="H397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J397" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R397" t="s">
         <v>2089</v>
       </c>
-      <c r="E397" s="1" t="s">
-        <v>2331</v>
-      </c>
-      <c r="F397" s="7">
-        <v>1</v>
-      </c>
-      <c r="G397" t="s">
-        <v>2332</v>
-      </c>
-      <c r="H397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J397" t="s">
-        <v>1874</v>
-      </c>
-      <c r="K397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q397" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R397" t="s">
-        <v>2090</v>
-      </c>
       <c r="S397" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T397" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="398" spans="1:20">
       <c r="A398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C398" s="7">
         <v>397</v>
       </c>
       <c r="D398" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F398" s="7">
+        <v>1</v>
+      </c>
+      <c r="G398" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I398" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J398" t="s">
         <v>2093</v>
       </c>
-      <c r="E398" s="1" t="s">
-        <v>2091</v>
-      </c>
-      <c r="F398" s="7">
-        <v>1</v>
-      </c>
-      <c r="G398" t="s">
-        <v>2166</v>
-      </c>
-      <c r="H398" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="I398" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J398" t="s">
-        <v>2094</v>
-      </c>
       <c r="K398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T398" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="399" spans="1:20">
       <c r="A399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C399" s="7">
         <v>398</v>
       </c>
       <c r="D399" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F399" s="7">
+        <v>1</v>
+      </c>
+      <c r="G399" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H399" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I399" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J399" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K399" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L399" t="s">
         <v>2096</v>
       </c>
-      <c r="E399" s="1" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F399" s="7">
-        <v>1</v>
-      </c>
-      <c r="G399" t="s">
-        <v>2336</v>
-      </c>
-      <c r="H399" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I399" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J399" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K399" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L399" t="s">
-        <v>2097</v>
-      </c>
       <c r="M399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T399" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="400" spans="1:20">
       <c r="A400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C400" s="7">
         <v>399</v>
       </c>
       <c r="D400" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F400" s="7">
+        <v>1</v>
+      </c>
+      <c r="G400" t="s">
+        <v>2341</v>
+      </c>
+      <c r="H400" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I400" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J400" t="s">
         <v>2099</v>
       </c>
-      <c r="E400" s="1" t="s">
-        <v>2098</v>
-      </c>
-      <c r="F400" s="7">
-        <v>1</v>
-      </c>
-      <c r="G400" t="s">
-        <v>2342</v>
-      </c>
-      <c r="H400" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I400" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J400" t="s">
-        <v>2100</v>
-      </c>
       <c r="K400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T400" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="401" spans="1:20" ht="17.25">
       <c r="A401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C401" s="7">
         <v>400</v>
       </c>
       <c r="D401" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F401" s="7">
+        <v>1</v>
+      </c>
+      <c r="G401" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H401" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I401" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J401" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K401" t="s">
         <v>2101</v>
       </c>
-      <c r="E401" s="1" t="s">
-        <v>2343</v>
-      </c>
-      <c r="F401" s="7">
-        <v>1</v>
-      </c>
-      <c r="G401" t="s">
-        <v>2352</v>
-      </c>
-      <c r="H401" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I401" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J401" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K401" t="s">
-        <v>2102</v>
-      </c>
       <c r="L401" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="M401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S401" s="36" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="T401" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="402" spans="1:20">
       <c r="A402" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B402" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C402" s="7">
         <v>401</v>
       </c>
       <c r="D402" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F402" s="7">
+        <v>1</v>
+      </c>
+      <c r="G402" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H402" s="1" t="s">
         <v>2103</v>
       </c>
-      <c r="E402" s="1" t="s">
+      <c r="I402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J402" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O402" t="s">
         <v>2105</v>
       </c>
-      <c r="F402" s="7">
-        <v>1</v>
-      </c>
-      <c r="G402" t="s">
-        <v>2357</v>
-      </c>
-      <c r="H402" s="1" t="s">
-        <v>2104</v>
-      </c>
-      <c r="I402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J402" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O402" t="s">
+      <c r="P402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R402" t="s">
+        <v>2165</v>
+      </c>
+      <c r="S402" t="s">
         <v>2106</v>
       </c>
-      <c r="P402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R402" t="s">
-        <v>2166</v>
-      </c>
-      <c r="S402" t="s">
-        <v>2107</v>
-      </c>
       <c r="T402" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="403" spans="1:20">
       <c r="A403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C403" s="7">
         <v>402</v>
       </c>
       <c r="D403" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="F403" s="7">
         <v>1</v>
       </c>
       <c r="G403" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="H403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="I403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J403" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="K403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="L403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="P403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Q403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="R403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="T403" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="404" spans="1:20">
       <c r="A404" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B404" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C404" s="7">
         <v>403</v>
       </c>
       <c r="D404" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F404" s="7">
+        <v>1</v>
+      </c>
+      <c r="G404" t="s">
+        <v>2362</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I404" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="E404" s="1" t="s">
-        <v>2362</v>
-      </c>
-      <c r="F404" s="7">
-        <v>1</v>
-      </c>
-      <c r="G404" t="s">
-        <v>2363</v>
-      </c>
-      <c r="H404" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="I404" s="1" t="s">
-        <v>2124</v>
-      </c>
       <c r="J404" t="s">
+        <v>2128</v>
+      </c>
+      <c r="K404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="S404" t="s">
+        <v>2165</v>
+      </c>
+      <c r="T404" s="37" t="s">
         <v>2129</v>
-      </c>
-      <c r="K404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R404" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="S404" t="s">
-        <v>2166</v>
-      </c>
-      <c r="T404" s="37" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="405" spans="1:20">
       <c r="A405" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B405" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C405" s="7">
         <v>404</v>
       </c>
       <c r="D405" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E405" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F405" s="7">
+        <v>1</v>
+      </c>
+      <c r="G405" t="s">
         <v>2364</v>
       </c>
-      <c r="F405" s="7">
-        <v>1</v>
-      </c>
-      <c r="G405" t="s">
-        <v>2365</v>
-      </c>
       <c r="H405" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="I405" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="I405" s="1" t="s">
+      <c r="J405" t="s">
+        <v>2134</v>
+      </c>
+      <c r="K405" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L405" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M405" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N405" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O405" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P405" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>2165</v>
+      </c>
+      <c r="R405" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="J405" t="s">
-        <v>2135</v>
-      </c>
-      <c r="K405" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L405" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M405" t="s">
-        <v>2166</v>
-      </c>
-      <c r="N405" t="s">
-        <v>2166</v>
-      </c>
-      <c r="O405" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P405" t="s">
-        <v>2166</v>
-      </c>
-      <c r="Q405" t="s">
-        <v>2166</v>
-      </c>
-      <c r="R405" s="1" t="s">
+      <c r="S405" t="s">
         <v>2133</v>
       </c>
-      <c r="S405" t="s">
-        <v>2134</v>
-      </c>
       <c r="T405" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="406" spans="1:20">
       <c r="A406" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B406" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C406" s="7">
         <v>405</v>
       </c>
       <c r="D406" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="F406" s="7">
         <v>1</v>
@@ -35764,804 +35764,804 @@
         <v>338</v>
       </c>
       <c r="H406" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="I406" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J406" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K406" t="s">
         <v>2170</v>
       </c>
-      <c r="I406" t="s">
-        <v>2188</v>
-      </c>
-      <c r="J406" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K406" t="s">
+      <c r="L406" t="s">
+        <v>2174</v>
+      </c>
+      <c r="M406" t="s">
+        <v>2187</v>
+      </c>
+      <c r="N406" t="s">
+        <v>2187</v>
+      </c>
+      <c r="O406" t="s">
         <v>2171</v>
       </c>
-      <c r="L406" t="s">
-        <v>2175</v>
-      </c>
-      <c r="M406" t="s">
-        <v>2188</v>
-      </c>
-      <c r="N406" t="s">
-        <v>2188</v>
-      </c>
-      <c r="O406" t="s">
+      <c r="P406" t="s">
         <v>2172</v>
       </c>
-      <c r="P406" t="s">
-        <v>2173</v>
-      </c>
       <c r="Q406" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="R406" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="S406" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="T406" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="407" spans="1:20">
       <c r="A407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C407" s="7">
         <v>406</v>
       </c>
       <c r="D407" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F407" s="7">
+        <v>1</v>
+      </c>
+      <c r="G407" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H407" s="1" t="s">
         <v>2176</v>
       </c>
-      <c r="E407" s="1" t="s">
-        <v>2367</v>
-      </c>
-      <c r="F407" s="7">
-        <v>1</v>
-      </c>
-      <c r="G407" t="s">
-        <v>2377</v>
-      </c>
-      <c r="H407" s="1" t="s">
+      <c r="I407" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J407" t="s">
         <v>2177</v>
       </c>
-      <c r="I407" t="s">
-        <v>2188</v>
-      </c>
-      <c r="J407" t="s">
-        <v>2178</v>
-      </c>
       <c r="K407" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="L407" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="M407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="O407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="P407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="Q407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="R407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="S407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="T407" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="408" spans="1:20">
       <c r="A408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C408" s="7">
         <v>407</v>
       </c>
       <c r="D408" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F408" s="7">
+        <v>1</v>
+      </c>
+      <c r="G408" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H408" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="E408" s="1" t="s">
-        <v>2184</v>
-      </c>
-      <c r="F408" s="7">
-        <v>1</v>
-      </c>
-      <c r="G408" t="s">
-        <v>2188</v>
-      </c>
-      <c r="H408" s="1" t="s">
+      <c r="I408" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="I408" s="1" t="s">
+      <c r="J408" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K408" t="s">
         <v>2187</v>
       </c>
-      <c r="J408" t="s">
-        <v>2100</v>
-      </c>
-      <c r="K408" t="s">
-        <v>2188</v>
-      </c>
       <c r="L408" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="M408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="O408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="P408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="Q408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="R408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="S408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="T408" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="409" spans="1:20">
       <c r="A409" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B409" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C409" s="7">
         <v>408</v>
       </c>
       <c r="D409" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="F409" s="7">
+        <v>1</v>
+      </c>
+      <c r="G409" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I409" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J409" t="s">
+        <v>2197</v>
+      </c>
+      <c r="K409" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L409" t="s">
+        <v>2380</v>
+      </c>
+      <c r="M409" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N409" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O409" t="s">
         <v>2200</v>
       </c>
-      <c r="E409" s="1" t="s">
-        <v>2197</v>
-      </c>
-      <c r="F409" s="7">
-        <v>1</v>
-      </c>
-      <c r="G409" t="s">
-        <v>2379</v>
-      </c>
-      <c r="H409" s="1" t="s">
-        <v>2199</v>
-      </c>
-      <c r="I409" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J409" t="s">
-        <v>2198</v>
-      </c>
-      <c r="K409" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L409" t="s">
-        <v>2381</v>
-      </c>
-      <c r="M409" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N409" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O409" t="s">
+      <c r="P409" t="s">
         <v>2201</v>
       </c>
-      <c r="P409" t="s">
-        <v>2202</v>
-      </c>
       <c r="Q409" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R409" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S409" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T409" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="410" spans="1:20">
       <c r="A410" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B410" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C410" s="7">
         <v>409</v>
       </c>
       <c r="D410" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F410" s="7">
+        <v>1</v>
+      </c>
+      <c r="G410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H410" s="1" t="s">
         <v>2205</v>
       </c>
-      <c r="E410" s="1" t="s">
-        <v>2382</v>
-      </c>
-      <c r="F410" s="7">
-        <v>1</v>
-      </c>
-      <c r="G410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H410" s="1" t="s">
+      <c r="I410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J410" t="s">
         <v>2206</v>
       </c>
-      <c r="I410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J410" t="s">
+      <c r="K410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="S410" t="s">
+        <v>2210</v>
+      </c>
+      <c r="T410" t="s">
         <v>2207</v>
-      </c>
-      <c r="K410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="M410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="P410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="Q410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="S410" t="s">
-        <v>2211</v>
-      </c>
-      <c r="T410" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="411" spans="1:20">
       <c r="A411" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B411" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C411" s="7">
         <v>410</v>
       </c>
       <c r="D411" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F411" s="7">
+        <v>1</v>
+      </c>
+      <c r="G411" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H411" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="E411" s="1" t="s">
-        <v>2227</v>
-      </c>
-      <c r="F411" s="7">
-        <v>1</v>
-      </c>
-      <c r="G411" s="7" t="s">
-        <v>2384</v>
-      </c>
-      <c r="H411" s="1" t="s">
+      <c r="I411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="J411" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="M411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="O411" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="P411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="R411" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="I411" t="s">
-        <v>2271</v>
-      </c>
-      <c r="J411" t="s">
-        <v>1874</v>
-      </c>
-      <c r="K411" t="s">
-        <v>2271</v>
-      </c>
-      <c r="L411" t="s">
-        <v>2271</v>
-      </c>
-      <c r="M411" t="s">
-        <v>2271</v>
-      </c>
-      <c r="N411" t="s">
-        <v>2271</v>
-      </c>
-      <c r="O411" s="1" t="s">
-        <v>2231</v>
-      </c>
-      <c r="P411" t="s">
-        <v>2271</v>
-      </c>
-      <c r="Q411" t="s">
-        <v>2271</v>
-      </c>
-      <c r="R411" s="1" t="s">
-        <v>2230</v>
-      </c>
       <c r="S411" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="T411" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="412" spans="1:20">
       <c r="A412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C412" s="7">
         <v>411</v>
       </c>
       <c r="D412" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="F412" s="7">
         <v>1</v>
       </c>
       <c r="G412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="I412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="J412" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="K412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="L412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="O412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="P412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="Q412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="R412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="S412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="T412" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="413" spans="1:20">
       <c r="A413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C413" s="7">
         <v>412</v>
       </c>
       <c r="D413" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F413" s="7">
+        <v>1</v>
+      </c>
+      <c r="G413" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H413" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E413" s="1" t="s">
-        <v>2247</v>
-      </c>
-      <c r="F413" s="7">
-        <v>1</v>
-      </c>
-      <c r="G413" t="s">
-        <v>2271</v>
-      </c>
-      <c r="H413" s="1" t="s">
-        <v>2249</v>
-      </c>
       <c r="I413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="J413" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="L413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="O413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="P413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="Q413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="R413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="S413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="T413" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="414" spans="1:20">
       <c r="A414" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B414" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C414" s="7">
         <v>413</v>
       </c>
       <c r="D414" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F414" s="7">
+        <v>1</v>
+      </c>
+      <c r="G414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H414" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="E414" s="1" t="s">
-        <v>2255</v>
-      </c>
-      <c r="F414" s="7">
-        <v>1</v>
-      </c>
-      <c r="G414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="H414" s="1" t="s">
+      <c r="I414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="J414" t="s">
         <v>2257</v>
       </c>
-      <c r="I414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="J414" t="s">
+      <c r="K414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="M414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="O414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="P414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>2270</v>
+      </c>
+      <c r="R414" t="s">
         <v>2258</v>
       </c>
-      <c r="K414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="L414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="M414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="N414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="O414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="P414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="Q414" t="s">
-        <v>2271</v>
-      </c>
-      <c r="R414" t="s">
-        <v>2259</v>
-      </c>
       <c r="S414" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="T414" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="415" spans="1:20">
       <c r="A415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C415" s="7">
         <v>414</v>
       </c>
       <c r="D415" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="F415" s="7">
         <v>1</v>
       </c>
       <c r="G415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="I415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="J415" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="K415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="L415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="O415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="P415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="Q415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="R415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="S415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="T415" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="416" spans="1:20">
       <c r="A416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C416" s="7">
         <v>415</v>
       </c>
       <c r="D416" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="F416" s="7">
         <v>1</v>
       </c>
       <c r="G416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="H416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="I416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="J416" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="K416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="L416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="O416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="P416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="Q416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="R416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="S416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="T416" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="417" spans="1:20">
       <c r="A417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C417" s="7">
         <v>416</v>
       </c>
       <c r="D417" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="F417" s="7">
         <v>1</v>
       </c>
       <c r="G417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="H417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="I417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J417" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="K417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="L417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="M417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="N417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="O417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="P417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T417" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="418" spans="1:20" ht="15">
       <c r="A418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C418" s="7">
         <v>417</v>
       </c>
       <c r="D418" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E418" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F418" s="7">
+        <v>1</v>
+      </c>
+      <c r="G418" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H418" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I418" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J418" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K418" s="38" t="s">
         <v>2274</v>
       </c>
-      <c r="F418" s="7">
-        <v>1</v>
-      </c>
-      <c r="G418" t="s">
-        <v>2393</v>
-      </c>
-      <c r="H418" t="s">
-        <v>2211</v>
-      </c>
-      <c r="I418" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J418" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K418" s="38" t="s">
+      <c r="L418" t="s">
         <v>2275</v>
       </c>
-      <c r="L418" t="s">
-        <v>2276</v>
-      </c>
       <c r="M418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="N418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="O418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="P418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T418" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="419" spans="1:20" ht="15.75">
       <c r="A419" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B419" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C419" s="7">
         <v>418</v>
       </c>
       <c r="D419" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="F419" s="7">
         <v>1</v>
@@ -36570,308 +36570,308 @@
         <v>383</v>
       </c>
       <c r="H419" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="I419" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J419" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K419" s="39" t="s">
         <v>2279</v>
       </c>
-      <c r="I419" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J419" t="s">
-        <v>1914</v>
-      </c>
-      <c r="K419" s="39" t="s">
+      <c r="L419" t="s">
+        <v>1978</v>
+      </c>
+      <c r="M419" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N419" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O419" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P419" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R419" s="39" t="s">
         <v>2280</v>
       </c>
-      <c r="L419" t="s">
-        <v>1979</v>
-      </c>
-      <c r="M419" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N419" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O419" t="s">
-        <v>2211</v>
-      </c>
-      <c r="P419" t="s">
-        <v>2211</v>
-      </c>
-      <c r="Q419" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R419" s="39" t="s">
-        <v>2281</v>
-      </c>
       <c r="S419" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T419" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="420" spans="1:20">
       <c r="A420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C420" s="7">
         <v>419</v>
       </c>
       <c r="D420" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="F420" s="7">
         <v>1</v>
       </c>
       <c r="G420" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="H420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="I420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J420" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="L420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="M420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="N420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="O420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="P420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T420" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="421" spans="1:20">
       <c r="A421" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B421" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C421" s="7">
         <v>420</v>
       </c>
       <c r="D421" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="F421" s="7">
         <v>1</v>
       </c>
       <c r="G421" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="I421" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J421" t="s">
+        <v>2294</v>
+      </c>
+      <c r="K421" t="s">
+        <v>2297</v>
+      </c>
+      <c r="L421" t="s">
+        <v>2296</v>
+      </c>
+      <c r="M421" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N421" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O421" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P421" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R421" t="s">
+        <v>2210</v>
+      </c>
+      <c r="S421" t="s">
+        <v>2210</v>
+      </c>
+      <c r="T421" t="s">
         <v>2295</v>
-      </c>
-      <c r="K421" t="s">
-        <v>2298</v>
-      </c>
-      <c r="L421" t="s">
-        <v>2297</v>
-      </c>
-      <c r="M421" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N421" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O421" t="s">
-        <v>2211</v>
-      </c>
-      <c r="P421" t="s">
-        <v>2211</v>
-      </c>
-      <c r="Q421" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R421" t="s">
-        <v>2211</v>
-      </c>
-      <c r="S421" t="s">
-        <v>2211</v>
-      </c>
-      <c r="T421" t="s">
-        <v>2296</v>
       </c>
     </row>
     <row r="422" spans="1:20">
       <c r="A422" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B422" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C422" s="7">
         <v>421</v>
       </c>
       <c r="D422" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F422" s="7">
+        <v>1</v>
+      </c>
+      <c r="G422" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H422" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="E422" s="1" t="s">
-        <v>2301</v>
-      </c>
-      <c r="F422" s="7">
-        <v>1</v>
-      </c>
-      <c r="G422" t="s">
-        <v>2430</v>
-      </c>
-      <c r="H422" s="1" t="s">
+      <c r="I422" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J422" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K422" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L422" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M422" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N422" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O422" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P422" t="s">
         <v>2303</v>
       </c>
-      <c r="I422" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J422" t="s">
-        <v>2306</v>
-      </c>
-      <c r="K422" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L422" t="s">
-        <v>2211</v>
-      </c>
-      <c r="M422" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N422" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O422" t="s">
-        <v>2211</v>
-      </c>
-      <c r="P422" t="s">
+      <c r="Q422" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R422" s="1" t="s">
         <v>2304</v>
       </c>
-      <c r="Q422" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R422" s="1" t="s">
-        <v>2305</v>
-      </c>
       <c r="S422" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T422" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="423" spans="1:20">
       <c r="A423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B423" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C423" s="7">
         <v>422</v>
       </c>
       <c r="D423" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F423" s="7">
+        <v>1</v>
+      </c>
+      <c r="G423" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H423" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I423" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J423" t="s">
+        <v>1917</v>
+      </c>
+      <c r="K423" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L423" t="s">
         <v>2308</v>
       </c>
-      <c r="E423" s="1" t="s">
-        <v>2307</v>
-      </c>
-      <c r="F423" s="7">
-        <v>1</v>
-      </c>
-      <c r="G423" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H423" t="s">
-        <v>2211</v>
-      </c>
-      <c r="I423" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J423" t="s">
-        <v>1918</v>
-      </c>
-      <c r="K423" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L423" t="s">
-        <v>2309</v>
-      </c>
       <c r="M423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="N423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="O423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="P423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T423" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="424" spans="1:20">
       <c r="A424" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B424" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C424" s="7">
         <v>423</v>
       </c>
       <c r="D424" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="F424" s="7">
         <v>1</v>
@@ -36880,680 +36880,680 @@
         <v>420</v>
       </c>
       <c r="H424" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="I424" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J424" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K424" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L424" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M424" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N424" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="P424" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R424" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="I424" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J424" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K424" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L424" t="s">
-        <v>2211</v>
-      </c>
-      <c r="M424" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N424" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O424" s="1" t="s">
+      <c r="S424" t="s">
         <v>2317</v>
       </c>
-      <c r="P424" t="s">
-        <v>2211</v>
-      </c>
-      <c r="Q424" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R424" s="1" t="s">
-        <v>2316</v>
-      </c>
-      <c r="S424" t="s">
-        <v>2318</v>
-      </c>
       <c r="T424" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="425" spans="1:20">
       <c r="A425" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B425" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C425" s="7">
         <v>424</v>
       </c>
       <c r="D425" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F425" s="7">
+        <v>1</v>
+      </c>
+      <c r="G425" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H425" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="E425" s="1" t="s">
-        <v>2322</v>
-      </c>
-      <c r="F425" s="7">
-        <v>1</v>
-      </c>
-      <c r="G425" t="s">
-        <v>2488</v>
-      </c>
-      <c r="H425" s="1" t="s">
+      <c r="I425" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J425" t="s">
+        <v>1917</v>
+      </c>
+      <c r="K425" t="s">
+        <v>2327</v>
+      </c>
+      <c r="L425" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M425" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N425" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O425" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="P425" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R425" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="I425" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J425" t="s">
-        <v>1918</v>
-      </c>
-      <c r="K425" t="s">
-        <v>2328</v>
-      </c>
-      <c r="L425" t="s">
-        <v>2211</v>
-      </c>
-      <c r="M425" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N425" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O425" s="1" t="s">
-        <v>2327</v>
-      </c>
-      <c r="P425" s="1" t="s">
-        <v>2326</v>
-      </c>
-      <c r="Q425" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R425" s="1" t="s">
-        <v>2325</v>
-      </c>
       <c r="S425" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T425" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="426" spans="1:20">
       <c r="A426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C426" s="7">
         <v>425</v>
       </c>
       <c r="D426" t="s">
+        <v>2337</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F426" s="7">
+        <v>1</v>
+      </c>
+      <c r="G426" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H426" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I426" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J426" t="s">
+        <v>2340</v>
+      </c>
+      <c r="K426" t="s">
         <v>2338</v>
       </c>
-      <c r="E426" s="1" t="s">
-        <v>2337</v>
-      </c>
-      <c r="F426" s="7">
-        <v>1</v>
-      </c>
-      <c r="G426" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H426" t="s">
-        <v>2211</v>
-      </c>
-      <c r="I426" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J426" t="s">
-        <v>2341</v>
-      </c>
-      <c r="K426" t="s">
+      <c r="L426" t="s">
         <v>2339</v>
       </c>
-      <c r="L426" t="s">
-        <v>2340</v>
-      </c>
       <c r="M426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="N426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="O426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="P426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T426" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="427" spans="1:20" ht="14.25">
       <c r="A427" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B427" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C427" s="7">
         <v>426</v>
       </c>
       <c r="D427" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F427" s="7">
+        <v>1</v>
+      </c>
+      <c r="G427" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H427" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="E427" s="1" t="s">
-        <v>2348</v>
-      </c>
-      <c r="F427" s="7">
-        <v>1</v>
-      </c>
-      <c r="G427" t="s">
-        <v>2431</v>
-      </c>
-      <c r="H427" s="1" t="s">
+      <c r="I427" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J427" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K427" s="40" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L427" t="s">
+        <v>1996</v>
+      </c>
+      <c r="M427" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N427" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O427" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P427" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R427" t="s">
         <v>2350</v>
       </c>
-      <c r="I427" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J427" t="s">
-        <v>1888</v>
-      </c>
-      <c r="K427" s="40" t="s">
-        <v>2004</v>
-      </c>
-      <c r="L427" t="s">
-        <v>1997</v>
-      </c>
-      <c r="M427" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N427" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O427" t="s">
-        <v>2211</v>
-      </c>
-      <c r="P427" t="s">
-        <v>2211</v>
-      </c>
-      <c r="Q427" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R427" t="s">
-        <v>2351</v>
-      </c>
       <c r="S427" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T427" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="428" spans="1:20" ht="14.25">
       <c r="A428" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B428" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C428" s="7">
         <v>427</v>
       </c>
       <c r="D428" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F428" s="7">
+        <v>1</v>
+      </c>
+      <c r="G428" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H428" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I428" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J428" t="s">
         <v>2354</v>
       </c>
-      <c r="E428" s="1" t="s">
-        <v>2353</v>
-      </c>
-      <c r="F428" s="7">
-        <v>1</v>
-      </c>
-      <c r="G428" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H428" t="s">
-        <v>2211</v>
-      </c>
-      <c r="I428" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J428" t="s">
+      <c r="K428" s="40" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L428" t="s">
+        <v>1996</v>
+      </c>
+      <c r="M428" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N428" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O428" t="s">
         <v>2355</v>
       </c>
-      <c r="K428" s="40" t="s">
-        <v>2004</v>
-      </c>
-      <c r="L428" t="s">
-        <v>1997</v>
-      </c>
-      <c r="M428" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N428" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O428" t="s">
-        <v>2356</v>
-      </c>
       <c r="P428" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q428" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R428" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S428" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T428" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="429" spans="1:20">
       <c r="A429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C429" s="7">
         <v>428</v>
       </c>
       <c r="D429" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F429" s="7">
+        <v>1</v>
+      </c>
+      <c r="G429" t="s">
+        <v>2446</v>
+      </c>
+      <c r="H429" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="E429" s="1" t="s">
-        <v>2432</v>
-      </c>
-      <c r="F429" s="7">
-        <v>1</v>
-      </c>
-      <c r="G429" t="s">
-        <v>2447</v>
-      </c>
-      <c r="H429" s="1" t="s">
+      <c r="I429" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J429" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K429" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L429" t="s">
         <v>2359</v>
       </c>
-      <c r="I429" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J429" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K429" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L429" t="s">
-        <v>2360</v>
-      </c>
       <c r="M429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="N429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="O429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="P429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="Q429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="R429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="S429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T429" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="430" spans="1:20" ht="15">
       <c r="A430" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B430" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C430" s="7">
         <v>429</v>
       </c>
       <c r="D430" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F430" s="7">
+        <v>1</v>
+      </c>
+      <c r="G430" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J430" t="s">
+        <v>2371</v>
+      </c>
+      <c r="K430" t="s">
         <v>2368</v>
       </c>
-      <c r="E430" s="1" t="s">
-        <v>2433</v>
-      </c>
-      <c r="F430" s="7">
-        <v>1</v>
-      </c>
-      <c r="G430" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H430" s="1" t="s">
-        <v>2371</v>
-      </c>
-      <c r="I430" s="1" t="s">
+      <c r="L430" s="42" t="s">
+        <v>2375</v>
+      </c>
+      <c r="M430" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N430" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O430" t="s">
         <v>2373</v>
       </c>
-      <c r="J430" t="s">
-        <v>2372</v>
-      </c>
-      <c r="K430" t="s">
+      <c r="P430" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>2210</v>
+      </c>
+      <c r="R430" s="41" t="s">
         <v>2369</v>
       </c>
-      <c r="L430" s="42" t="s">
-        <v>2376</v>
-      </c>
-      <c r="M430" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N430" t="s">
-        <v>2211</v>
-      </c>
-      <c r="O430" t="s">
+      <c r="S430" t="s">
         <v>2374</v>
       </c>
-      <c r="P430" t="s">
-        <v>2211</v>
-      </c>
-      <c r="Q430" t="s">
-        <v>2211</v>
-      </c>
-      <c r="R430" s="41" t="s">
-        <v>2370</v>
-      </c>
-      <c r="S430" t="s">
-        <v>2375</v>
-      </c>
       <c r="T430" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="431" spans="1:20" ht="15">
       <c r="A431" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B431" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C431" s="7">
         <v>430</v>
       </c>
       <c r="D431" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F431" s="7">
+        <v>1</v>
+      </c>
+      <c r="G431" t="s">
+        <v>2438</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I431" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J431" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K431" s="43" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L431" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M431" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N431" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O431" t="s">
         <v>2386</v>
       </c>
-      <c r="E431" s="1" t="s">
-        <v>2434</v>
-      </c>
-      <c r="F431" s="7">
-        <v>1</v>
-      </c>
-      <c r="G431" t="s">
-        <v>2439</v>
-      </c>
-      <c r="H431" s="1" t="s">
-        <v>2385</v>
-      </c>
-      <c r="I431" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J431" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K431" s="43" t="s">
-        <v>2389</v>
-      </c>
-      <c r="L431" t="s">
-        <v>2390</v>
-      </c>
-      <c r="M431" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N431" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O431" t="s">
+      <c r="P431" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R431" t="s">
         <v>2387</v>
       </c>
-      <c r="P431" t="s">
-        <v>2488</v>
-      </c>
-      <c r="Q431" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R431" t="s">
-        <v>2388</v>
-      </c>
       <c r="S431" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T431" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="432" spans="1:20">
       <c r="A432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C432" s="7">
         <v>431</v>
       </c>
       <c r="D432" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="F432" s="7">
         <v>1</v>
       </c>
       <c r="G432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J432" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="K432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T432" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="433" spans="1:20">
       <c r="A433" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B433" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C433" s="7">
         <v>432</v>
       </c>
       <c r="D433" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F433" s="7">
+        <v>1</v>
+      </c>
+      <c r="G433" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J433" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="P433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R433" t="s">
         <v>2397</v>
       </c>
-      <c r="E433" s="1" t="s">
-        <v>2396</v>
-      </c>
-      <c r="F433" s="7">
-        <v>1</v>
-      </c>
-      <c r="G433" t="s">
-        <v>2450</v>
-      </c>
-      <c r="H433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="I433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J433" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="M433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="P433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="Q433" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R433" t="s">
-        <v>2398</v>
-      </c>
       <c r="S433" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T433" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="434" spans="1:20">
       <c r="A434" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B434" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C434" s="7">
         <v>433</v>
       </c>
       <c r="D434" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F434" s="7">
+        <v>1</v>
+      </c>
+      <c r="G434" t="s">
+        <v>2451</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="I434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J434" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="P434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R434" t="s">
         <v>2401</v>
       </c>
-      <c r="E434" s="1" t="s">
-        <v>2399</v>
-      </c>
-      <c r="F434" s="7">
-        <v>1</v>
-      </c>
-      <c r="G434" t="s">
-        <v>2452</v>
-      </c>
-      <c r="H434" s="1" t="s">
-        <v>2400</v>
-      </c>
-      <c r="I434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J434" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="M434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="P434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="Q434" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R434" t="s">
-        <v>2402</v>
-      </c>
       <c r="S434" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T434" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="435" spans="1:20">
       <c r="A435" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B435" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C435" s="7">
         <v>434</v>
       </c>
       <c r="D435" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="F435" s="7">
         <v>1</v>
@@ -37562,60 +37562,60 @@
         <v>419</v>
       </c>
       <c r="H435" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="I435" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J435" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K435" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L435" t="s">
+        <v>2406</v>
+      </c>
+      <c r="M435" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N435" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O435" t="s">
+        <v>2487</v>
+      </c>
+      <c r="P435" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R435" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="I435" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J435" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K435" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L435" t="s">
-        <v>2407</v>
-      </c>
-      <c r="M435" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N435" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O435" t="s">
-        <v>2488</v>
-      </c>
-      <c r="P435" t="s">
-        <v>2488</v>
-      </c>
-      <c r="Q435" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R435" s="1" t="s">
-        <v>2406</v>
-      </c>
       <c r="S435" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T435" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="436" spans="1:20">
       <c r="A436" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B436" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C436" s="7">
         <v>435</v>
       </c>
       <c r="D436" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="F436" s="7">
         <v>1</v>
@@ -37624,184 +37624,184 @@
         <v>420</v>
       </c>
       <c r="H436" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="I436" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J436" t="s">
+        <v>2410</v>
+      </c>
+      <c r="K436" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L436" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M436" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N436" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O436" t="s">
         <v>2413</v>
       </c>
-      <c r="I436" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J436" t="s">
+      <c r="P436" t="s">
+        <v>2414</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R436" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="K436" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L436" t="s">
-        <v>2488</v>
-      </c>
-      <c r="M436" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N436" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O436" t="s">
-        <v>2414</v>
-      </c>
-      <c r="P436" t="s">
-        <v>2415</v>
-      </c>
-      <c r="Q436" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R436" s="1" t="s">
-        <v>2412</v>
-      </c>
       <c r="S436" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T436" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="437" spans="1:20">
       <c r="A437" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B437" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C437" s="7">
         <v>436</v>
       </c>
       <c r="D437" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F437" s="7">
+        <v>1</v>
+      </c>
+      <c r="G437" t="s">
+        <v>2455</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="I437" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J437" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K437" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L437" t="s">
         <v>2416</v>
       </c>
-      <c r="E437" s="1" t="s">
-        <v>2454</v>
-      </c>
-      <c r="F437" s="7">
-        <v>1</v>
-      </c>
-      <c r="G437" t="s">
-        <v>2456</v>
-      </c>
-      <c r="H437" s="1" t="s">
+      <c r="M437" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N437" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O437" t="s">
+        <v>2487</v>
+      </c>
+      <c r="P437" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R437" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="I437" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J437" t="s">
-        <v>1914</v>
-      </c>
-      <c r="K437" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L437" t="s">
-        <v>2417</v>
-      </c>
-      <c r="M437" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N437" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O437" t="s">
-        <v>2488</v>
-      </c>
-      <c r="P437" s="1" t="s">
-        <v>2420</v>
-      </c>
-      <c r="Q437" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R437" s="1" t="s">
-        <v>2419</v>
-      </c>
       <c r="S437" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T437" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="438" spans="1:20">
       <c r="A438" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B438" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C438" s="7">
         <v>437</v>
       </c>
       <c r="D438" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438" t="s">
+        <v>2467</v>
+      </c>
+      <c r="H438" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I438" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J438" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K438" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L438" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M438" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N438" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O438" t="s">
         <v>2422</v>
       </c>
-      <c r="E438" s="1" t="s">
-        <v>2421</v>
-      </c>
-      <c r="F438">
-        <v>1</v>
-      </c>
-      <c r="G438" t="s">
-        <v>2468</v>
-      </c>
-      <c r="H438" t="s">
-        <v>2488</v>
-      </c>
-      <c r="I438" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J438" t="s">
-        <v>1942</v>
-      </c>
-      <c r="K438" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L438" t="s">
-        <v>2488</v>
-      </c>
-      <c r="M438" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N438" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O438" t="s">
-        <v>2423</v>
-      </c>
       <c r="P438" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q438" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R438" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S438" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T438" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="439" spans="1:20" ht="14.25">
       <c r="A439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C439" s="7">
         <v>438</v>
       </c>
       <c r="D439" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="F439">
         <v>1</v>
@@ -37810,432 +37810,432 @@
         <v>420</v>
       </c>
       <c r="H439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J439" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="K439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O439" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="P439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R439" s="44" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="S439" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="T439" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="440" spans="1:20">
       <c r="A440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C440" s="7">
         <v>439</v>
       </c>
       <c r="D440" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="F440">
         <v>1</v>
       </c>
       <c r="G440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J440" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="441" spans="1:20">
       <c r="A441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C441" s="7">
         <v>440</v>
       </c>
       <c r="D441" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H441" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I441" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J441" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K441" t="s">
         <v>2436</v>
       </c>
-      <c r="E441" s="1" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F441">
-        <v>1</v>
-      </c>
-      <c r="G441" t="s">
-        <v>2488</v>
-      </c>
-      <c r="H441" t="s">
-        <v>2488</v>
-      </c>
-      <c r="I441" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J441" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K441" t="s">
-        <v>2437</v>
-      </c>
       <c r="L441" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="M441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T441" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="442" spans="1:20">
       <c r="A442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C442" s="7">
         <v>441</v>
       </c>
       <c r="D442" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="F442">
         <v>1</v>
       </c>
       <c r="G442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J442" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="K442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T442" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="443" spans="1:20" ht="15">
       <c r="A443" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B443" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C443" s="7">
         <v>442</v>
       </c>
       <c r="D443" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="G443" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I443" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J443" t="s">
+        <v>2443</v>
+      </c>
+      <c r="K443" s="43" t="s">
         <v>2441</v>
       </c>
-      <c r="E443" s="1" t="s">
-        <v>2440</v>
-      </c>
-      <c r="F443">
-        <v>1</v>
-      </c>
-      <c r="G443" t="s">
-        <v>2488</v>
-      </c>
-      <c r="H443" s="1" t="s">
+      <c r="L443" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M443" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N443" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O443" t="s">
+        <v>2487</v>
+      </c>
+      <c r="P443" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R443" t="s">
         <v>2445</v>
       </c>
-      <c r="I443" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J443" t="s">
-        <v>2444</v>
-      </c>
-      <c r="K443" s="43" t="s">
-        <v>2442</v>
-      </c>
-      <c r="L443" t="s">
-        <v>2443</v>
-      </c>
-      <c r="M443" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N443" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O443" t="s">
-        <v>2488</v>
-      </c>
-      <c r="P443" t="s">
-        <v>2488</v>
-      </c>
-      <c r="Q443" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R443" t="s">
-        <v>2446</v>
-      </c>
       <c r="S443" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T443" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="444" spans="1:20">
       <c r="A444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C444" s="7">
         <v>443</v>
       </c>
       <c r="D444" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F444">
         <v>1</v>
       </c>
       <c r="G444" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="H444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J444" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="K444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T444" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="445" spans="1:20">
       <c r="A445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C445" s="7">
         <v>444</v>
       </c>
       <c r="D445" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F445">
         <v>1</v>
       </c>
       <c r="G445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J445" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T445" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="446" spans="1:20">
       <c r="A446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C446" s="7">
         <v>445</v>
       </c>
       <c r="D446" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="F446">
         <v>1</v>
@@ -38244,353 +38244,353 @@
         <v>433</v>
       </c>
       <c r="H446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="J446" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="K446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R446" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="S446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T446" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="447" spans="1:20">
       <c r="A447" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B447" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C447" s="7">
         <v>446</v>
       </c>
       <c r="D447" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H447" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="E447" s="1" t="s">
-        <v>2475</v>
-      </c>
-      <c r="F447">
-        <v>1</v>
-      </c>
-      <c r="G447" t="s">
-        <v>2478</v>
-      </c>
-      <c r="H447" s="1" t="s">
+      <c r="I447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J447" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="P447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>2487</v>
+      </c>
+      <c r="R447" t="s">
         <v>2465</v>
       </c>
-      <c r="I447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J447" t="s">
-        <v>1874</v>
-      </c>
-      <c r="K447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="M447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="P447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="Q447" t="s">
-        <v>2488</v>
-      </c>
-      <c r="R447" t="s">
+      <c r="S447" t="s">
         <v>2466</v>
       </c>
-      <c r="S447" t="s">
-        <v>2467</v>
-      </c>
       <c r="T447" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="448" spans="1:20">
       <c r="A448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C448" s="7">
         <v>447</v>
       </c>
       <c r="D448" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F448">
         <v>1</v>
       </c>
       <c r="G448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J448" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T448" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="449" spans="1:20">
       <c r="A449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C449" s="7">
         <v>448</v>
       </c>
       <c r="D449" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+      <c r="G449" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H449" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I449" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J449" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K449" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L449" t="s">
         <v>2476</v>
       </c>
-      <c r="E449" s="1" t="s">
-        <v>2480</v>
-      </c>
-      <c r="F449">
-        <v>1</v>
-      </c>
-      <c r="G449" t="s">
-        <v>2486</v>
-      </c>
-      <c r="H449" t="s">
-        <v>2488</v>
-      </c>
-      <c r="I449" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J449" t="s">
-        <v>1874</v>
-      </c>
-      <c r="K449" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L449" t="s">
-        <v>2477</v>
-      </c>
       <c r="M449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T449" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="450" spans="1:20">
       <c r="A450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C450" s="7">
         <v>449</v>
       </c>
       <c r="D450" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F450">
         <v>1</v>
       </c>
       <c r="G450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J450" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="K450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="N450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T450" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="451" spans="1:20">
       <c r="A451" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B451" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C451" s="7">
         <v>450</v>
       </c>
       <c r="D451" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H451" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I451" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J451" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K451" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L451" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M451" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N451" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O451" t="s">
         <v>2484</v>
       </c>
-      <c r="E451" s="1" t="s">
-        <v>2483</v>
-      </c>
-      <c r="F451">
-        <v>1</v>
-      </c>
-      <c r="G451" t="s">
-        <v>2488</v>
-      </c>
-      <c r="H451" t="s">
-        <v>2488</v>
-      </c>
-      <c r="I451" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J451" t="s">
-        <v>1874</v>
-      </c>
-      <c r="K451" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L451" t="s">
-        <v>2488</v>
-      </c>
-      <c r="M451" t="s">
-        <v>2488</v>
-      </c>
-      <c r="N451" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O451" t="s">
-        <v>2485</v>
-      </c>
       <c r="P451" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q451" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="R451" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S451" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T451" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
   </sheetData>

--- a/2018-2020国内安全圈活跃技术博主.xlsx
+++ b/2018-2020国内安全圈活跃技术博主.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.PC-20180920ULSI\Documents\GitHub\Security-Data-Analysis-and-Visualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Security-Data-Analysis-and-Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7648" uniqueCount="2482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7682" uniqueCount="2499">
   <si>
     <t>http://l-team.org</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9866,6 +9866,74 @@
   </si>
   <si>
     <t>Mrxn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.gzsec.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolCat|TheKingOfDuck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/TheKingOfDuck/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolCat@gzsec.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web安全-代码审计-安全开发-内网渗透-域渗透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166-177-423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://projectsharp.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件安全-Web安全-威胁狩猎-恶意软件分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfp@pj3.club</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10510,13 +10578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S452"/>
+  <dimension ref="A1:S454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="S455" sqref="S455"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -13487,7 +13555,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>1340</v>
       </c>
@@ -22691,7 +22759,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="14.25">
+    <row r="207" spans="1:19">
       <c r="A207" t="s">
         <v>1340</v>
       </c>
@@ -28886,7 +28954,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="14.25">
+    <row r="312" spans="1:19">
       <c r="A312" t="s">
         <v>1562</v>
       </c>
@@ -31187,7 +31255,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="14.25">
+    <row r="351" spans="1:19">
       <c r="A351" t="s">
         <v>1699</v>
       </c>
@@ -32780,7 +32848,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="14.25">
+    <row r="378" spans="1:19">
       <c r="A378" t="s">
         <v>2097</v>
       </c>
@@ -33134,7 +33202,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="14.25">
+    <row r="384" spans="1:19">
       <c r="A384" t="s">
         <v>2097</v>
       </c>
@@ -35671,7 +35739,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="14.25">
+    <row r="427" spans="1:19">
       <c r="A427" t="s">
         <v>2139</v>
       </c>
@@ -35730,7 +35798,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="14.25">
+    <row r="428" spans="1:19">
       <c r="A428" t="s">
         <v>2139</v>
       </c>
@@ -36379,7 +36447,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="14.25">
+    <row r="439" spans="1:19">
       <c r="A439" t="s">
         <v>2410</v>
       </c>
@@ -37203,6 +37271,124 @@
       </c>
       <c r="S452" t="s">
         <v>2464</v>
+      </c>
+    </row>
+    <row r="453" spans="1:19">
+      <c r="A453" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B453" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C453" s="6">
+        <v>452</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="I453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J453" t="s">
+        <v>2487</v>
+      </c>
+      <c r="K453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="M453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="N453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="O453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="P453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="Q453" t="s">
+        <v>2488</v>
+      </c>
+      <c r="R453" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="S453" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="454" spans="1:19">
+      <c r="A454" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C454" s="6">
+        <v>453</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F454">
+        <v>2</v>
+      </c>
+      <c r="G454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H454" t="s">
+        <v>2495</v>
+      </c>
+      <c r="I454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J454" t="s">
+        <v>2496</v>
+      </c>
+      <c r="K454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="M454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="N454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="O454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="P454" t="s">
+        <v>2495</v>
+      </c>
+      <c r="Q454" t="s">
+        <v>2488</v>
+      </c>
+      <c r="R454" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S454" t="s">
+        <v>2498</v>
       </c>
     </row>
   </sheetData>
@@ -38264,8 +38450,13 @@
     <hyperlink ref="R236" r:id="rId1054"/>
     <hyperlink ref="R249" r:id="rId1055"/>
     <hyperlink ref="R280" r:id="rId1056"/>
+    <hyperlink ref="E453" r:id="rId1057"/>
+    <hyperlink ref="H453" r:id="rId1058"/>
+    <hyperlink ref="R453" r:id="rId1059"/>
+    <hyperlink ref="E454" r:id="rId1060"/>
+    <hyperlink ref="R454" r:id="rId1061"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1057"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1062"/>
 </worksheet>
 </file>